--- a/test_output/workflow_test/yield_table.xlsx
+++ b/test_output/workflow_test/yield_table.xlsx
@@ -525,13 +525,13 @@
         <v>400</v>
       </c>
       <c r="B2" t="n">
-        <v>0.58</v>
+        <v>0.55</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5173497881991072</v>
+        <v>0.5029932303624048</v>
       </c>
       <c r="D2" t="n">
-        <v>0.51</v>
+        <v>0.49</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
@@ -540,10 +540,10 @@
         <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04653580742007139</v>
+        <v>0.0439888878852403</v>
       </c>
       <c r="H2" t="n">
-        <v>3.448925026704582</v>
+        <v>3.296607376825627</v>
       </c>
       <c r="I2" t="n">
         <v>480</v>
@@ -555,7 +555,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>74.90000000000001</v>
+        <v>74.89</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -577,40 +577,40 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B3" t="n">
-        <v>17.77</v>
+        <v>17.82</v>
       </c>
       <c r="C3" t="n">
-        <v>2.879567861007473</v>
+        <v>2.880001614028414</v>
       </c>
       <c r="D3" t="n">
         <v>2.88</v>
       </c>
       <c r="E3" t="n">
-        <v>22.6372838227391</v>
+        <v>22.63763141941052</v>
       </c>
       <c r="F3" t="n">
         <v>22.57</v>
       </c>
       <c r="G3" t="n">
-        <v>1.41646515977097</v>
+        <v>1.42049724280948</v>
       </c>
       <c r="H3" t="n">
-        <v>53.2859723812151</v>
+        <v>53.43447605407996</v>
       </c>
       <c r="I3" t="n">
         <v>480</v>
       </c>
       <c r="J3" t="n">
-        <v>1.110124424608648</v>
+        <v>1.113218251126666</v>
       </c>
       <c r="K3" t="n">
         <v>5</v>
       </c>
       <c r="L3" t="n">
-        <v>257.21</v>
+        <v>257.94</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -632,40 +632,40 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B4" t="n">
-        <v>43.12</v>
+        <v>43.03</v>
       </c>
       <c r="C4" t="n">
-        <v>4.531339907874619</v>
+        <v>4.532739783743485</v>
       </c>
       <c r="D4" t="n">
         <v>4.53</v>
       </c>
       <c r="E4" t="n">
-        <v>36.11691413952529</v>
+        <v>36.11698406571623</v>
       </c>
       <c r="F4" t="n">
-        <v>36.05</v>
+        <v>36.06</v>
       </c>
       <c r="G4" t="n">
-        <v>2.371017427700105</v>
+        <v>2.365737714390702</v>
       </c>
       <c r="H4" t="n">
-        <v>108.0698349752946</v>
+        <v>107.8425848164341</v>
       </c>
       <c r="I4" t="n">
         <v>480</v>
       </c>
       <c r="J4" t="n">
-        <v>2.251454895318638</v>
+        <v>2.246720517009044</v>
       </c>
       <c r="K4" t="n">
         <v>10</v>
       </c>
       <c r="L4" t="n">
-        <v>784.36</v>
+        <v>782.83</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -687,43 +687,43 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B5" t="n">
-        <v>79.22</v>
+        <v>79.53</v>
       </c>
       <c r="C5" t="n">
-        <v>6.198892374107886</v>
+        <v>6.20270771802055</v>
       </c>
       <c r="D5" t="n">
         <v>6.2</v>
       </c>
       <c r="E5" t="n">
-        <v>48.38898476247068</v>
+        <v>48.38944971216294</v>
       </c>
       <c r="F5" t="n">
-        <v>48.32</v>
+        <v>48.33</v>
       </c>
       <c r="G5" t="n">
-        <v>3.470631846294421</v>
+        <v>3.482699896682445</v>
       </c>
       <c r="H5" t="n">
-        <v>175.4510308200187</v>
+        <v>176.0889986076711</v>
       </c>
       <c r="I5" t="n">
         <v>480</v>
       </c>
       <c r="J5" t="n">
-        <v>3.655229808750389</v>
+        <v>3.668520804326481</v>
       </c>
       <c r="K5" t="n">
         <v>15</v>
       </c>
       <c r="L5" t="n">
-        <v>1825.38</v>
+        <v>1832.52</v>
       </c>
       <c r="M5" t="n">
-        <v>528.4754311599294</v>
+        <v>531.2168635285503</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
@@ -742,43 +742,43 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="B6" t="n">
-        <v>116.53</v>
+        <v>117.55</v>
       </c>
       <c r="C6" t="n">
-        <v>7.609221314843299</v>
+        <v>7.611481095807586</v>
       </c>
       <c r="D6" t="n">
         <v>7.61</v>
       </c>
       <c r="E6" t="n">
-        <v>58.1579878355919</v>
+        <v>58.15732951667125</v>
       </c>
       <c r="F6" t="n">
         <v>58.09</v>
       </c>
       <c r="G6" t="n">
-        <v>4.504288204977032</v>
+        <v>4.542840461644659</v>
       </c>
       <c r="H6" t="n">
-        <v>238.0002495787738</v>
+        <v>240.0495867628545</v>
       </c>
       <c r="I6" t="n">
         <v>480</v>
       </c>
       <c r="J6" t="n">
-        <v>4.958338532891121</v>
+        <v>5.00103305755947</v>
       </c>
       <c r="K6" t="n">
         <v>20</v>
       </c>
       <c r="L6" t="n">
-        <v>3171.89</v>
+        <v>3199.62</v>
       </c>
       <c r="M6" t="n">
-        <v>1293.65202603801</v>
+        <v>1305.435496376861</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -797,46 +797,46 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="B7" t="n">
-        <v>151.5</v>
+        <v>153.87</v>
       </c>
       <c r="C7" t="n">
-        <v>8.783870983217049</v>
+        <v>8.77964073800727</v>
       </c>
       <c r="D7" t="n">
         <v>8.77</v>
       </c>
       <c r="E7" t="n">
-        <v>65.99747080655811</v>
+        <v>65.99379174143088</v>
       </c>
       <c r="F7" t="n">
-        <v>65.93000000000001</v>
+        <v>65.92</v>
       </c>
       <c r="G7" t="n">
-        <v>5.419067842727051</v>
+        <v>5.50542150900197</v>
       </c>
       <c r="H7" t="n">
-        <v>292.3603329097716</v>
+        <v>297.0032906374731</v>
       </c>
       <c r="I7" t="n">
         <v>480</v>
       </c>
       <c r="J7" t="n">
-        <v>6.090840268953576</v>
+        <v>6.187568554947356</v>
       </c>
       <c r="K7" t="n">
         <v>25</v>
       </c>
       <c r="L7" t="n">
-        <v>4645.68</v>
+        <v>4718.46</v>
       </c>
       <c r="M7" t="n">
-        <v>2221.953968713026</v>
+        <v>2255.788648062923</v>
       </c>
       <c r="N7" t="n">
-        <v>1102.429629551532</v>
+        <v>857.2149024383428</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -855,13 +855,13 @@
         <v>600</v>
       </c>
       <c r="B8" t="n">
-        <v>0.87</v>
+        <v>0.84</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5160068182504328</v>
+        <v>0.5069569611518455</v>
       </c>
       <c r="D8" t="n">
-        <v>0.51</v>
+        <v>0.5</v>
       </c>
       <c r="E8" t="n">
         <v>1</v>
@@ -870,10 +870,10 @@
         <v>1</v>
       </c>
       <c r="G8" t="n">
-        <v>0.06944177955206532</v>
+        <v>0.0670273644462927</v>
       </c>
       <c r="H8" t="n">
-        <v>5.151850263315787</v>
+        <v>5.00760254150969</v>
       </c>
       <c r="I8" t="n">
         <v>480</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>112.35</v>
+        <v>112.33</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -907,40 +907,40 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="B9" t="n">
-        <v>26.76</v>
+        <v>26.86</v>
       </c>
       <c r="C9" t="n">
-        <v>2.87654200639878</v>
+        <v>2.879250984525404</v>
       </c>
       <c r="D9" t="n">
-        <v>2.87</v>
+        <v>2.88</v>
       </c>
       <c r="E9" t="n">
-        <v>22.63415767777857</v>
+        <v>22.63448719060483</v>
       </c>
       <c r="F9" t="n">
-        <v>22.56</v>
+        <v>22.57</v>
       </c>
       <c r="G9" t="n">
-        <v>2.132823146236928</v>
+        <v>2.140445646189204</v>
       </c>
       <c r="H9" t="n">
-        <v>80.26795521427721</v>
+        <v>80.52487902137703</v>
       </c>
       <c r="I9" t="n">
         <v>480</v>
       </c>
       <c r="J9" t="n">
-        <v>1.672249066964109</v>
+        <v>1.677601646278688</v>
       </c>
       <c r="K9" t="n">
         <v>5</v>
       </c>
       <c r="L9" t="n">
-        <v>387.46</v>
+        <v>388.67</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -962,43 +962,43 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>579</v>
+        <v>586</v>
       </c>
       <c r="B10" t="n">
-        <v>63.99</v>
+        <v>64.7</v>
       </c>
       <c r="C10" t="n">
-        <v>4.501426369554769</v>
+        <v>4.499332245904254</v>
       </c>
       <c r="D10" t="n">
         <v>4.5</v>
       </c>
       <c r="E10" t="n">
-        <v>36.10169571017353</v>
+        <v>36.0676306537212</v>
       </c>
       <c r="F10" t="n">
-        <v>36.01</v>
+        <v>36</v>
       </c>
       <c r="G10" t="n">
-        <v>3.537458931816712</v>
+        <v>3.578255957200619</v>
       </c>
       <c r="H10" t="n">
-        <v>160.8072243052892</v>
+        <v>162.6298490643424</v>
       </c>
       <c r="I10" t="n">
         <v>480</v>
       </c>
       <c r="J10" t="n">
-        <v>3.350150506360192</v>
+        <v>3.388121855507133</v>
       </c>
       <c r="K10" t="n">
         <v>10</v>
       </c>
       <c r="L10" t="n">
-        <v>1164.16</v>
+        <v>1177.2</v>
       </c>
       <c r="M10" t="n">
-        <v>0.3670383727037041</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
@@ -1017,43 +1017,43 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>570</v>
+        <v>574</v>
       </c>
       <c r="B11" t="n">
-        <v>112.47</v>
+        <v>112.87</v>
       </c>
       <c r="C11" t="n">
-        <v>6.014698129999116</v>
+        <v>6.004488170164657</v>
       </c>
       <c r="D11" t="n">
-        <v>6.01</v>
+        <v>6</v>
       </c>
       <c r="E11" t="n">
-        <v>48.27775588117517</v>
+        <v>48.24040554487912</v>
       </c>
       <c r="F11" t="n">
-        <v>48.18</v>
+        <v>48.17</v>
       </c>
       <c r="G11" t="n">
-        <v>5.025834525330803</v>
+        <v>5.049708471072671</v>
       </c>
       <c r="H11" t="n">
-        <v>252.0652988910562</v>
+        <v>253.1429646709479</v>
       </c>
       <c r="I11" t="n">
         <v>480</v>
       </c>
       <c r="J11" t="n">
-        <v>5.25136039356367</v>
+        <v>5.273811763978083</v>
       </c>
       <c r="K11" t="n">
         <v>15</v>
       </c>
       <c r="L11" t="n">
-        <v>2590.31</v>
+        <v>2599.75</v>
       </c>
       <c r="M11" t="n">
-        <v>702.8816788094659</v>
+        <v>702.6849256051228</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -1072,43 +1072,43 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>561</v>
+        <v>566</v>
       </c>
       <c r="B12" t="n">
-        <v>159.32</v>
+        <v>159.99</v>
       </c>
       <c r="C12" t="n">
-        <v>7.215987140244685</v>
+        <v>7.199144773956875</v>
       </c>
       <c r="D12" t="n">
-        <v>7.21</v>
+        <v>7.19</v>
       </c>
       <c r="E12" t="n">
-        <v>57.92442304118115</v>
+        <v>57.88556544565979</v>
       </c>
       <c r="F12" t="n">
         <v>57.82</v>
       </c>
       <c r="G12" t="n">
-        <v>6.349017493454173</v>
+        <v>6.384623223305535</v>
       </c>
       <c r="H12" t="n">
-        <v>332.2978573155404</v>
+        <v>334.0044763895795</v>
       </c>
       <c r="I12" t="n">
         <v>480</v>
       </c>
       <c r="J12" t="n">
-        <v>6.922872027407092</v>
+        <v>6.958426591449573</v>
       </c>
       <c r="K12" t="n">
         <v>20</v>
       </c>
       <c r="L12" t="n">
-        <v>4327.9</v>
+        <v>4346.11</v>
       </c>
       <c r="M12" t="n">
-        <v>1648.62955438375</v>
+        <v>1650.139867739313</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -1127,46 +1127,46 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>543</v>
+        <v>555</v>
       </c>
       <c r="B13" t="n">
-        <v>197.66</v>
+        <v>200.85</v>
       </c>
       <c r="C13" t="n">
-        <v>8.169590158931316</v>
+        <v>8.145615514657084</v>
       </c>
       <c r="D13" t="n">
-        <v>8.15</v>
+        <v>8.130000000000001</v>
       </c>
       <c r="E13" t="n">
-        <v>65.74886520074423</v>
+        <v>65.70990923717899</v>
       </c>
       <c r="F13" t="n">
-        <v>65.64</v>
+        <v>65.63</v>
       </c>
       <c r="G13" t="n">
-        <v>7.342165237703831</v>
+        <v>7.472414850748994</v>
       </c>
       <c r="H13" t="n">
-        <v>392.537600051907</v>
+        <v>399.3244054012164</v>
       </c>
       <c r="I13" t="n">
         <v>480</v>
       </c>
       <c r="J13" t="n">
-        <v>8.177866667748063</v>
+        <v>8.319258445858676</v>
       </c>
       <c r="K13" t="n">
         <v>25</v>
       </c>
       <c r="L13" t="n">
-        <v>6049.66</v>
+        <v>6147.03</v>
       </c>
       <c r="M13" t="n">
-        <v>2698.514924952933</v>
+        <v>2733.375523132395</v>
       </c>
       <c r="N13" t="n">
-        <v>9.692890552631942</v>
+        <v>0</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1185,10 +1185,10 @@
         <v>800</v>
       </c>
       <c r="B14" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="C14" t="n">
-        <v>0.5121712164364447</v>
+        <v>0.5089808083405145</v>
       </c>
       <c r="D14" t="n">
         <v>0.5</v>
@@ -1200,10 +1200,10 @@
         <v>1</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0912176823797997</v>
+        <v>0.09008479865036262</v>
       </c>
       <c r="H14" t="n">
-        <v>6.787366981587904</v>
+        <v>6.719635957851057</v>
       </c>
       <c r="I14" t="n">
         <v>480</v>
@@ -1215,7 +1215,7 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>149.79</v>
+        <v>149.78</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -1237,40 +1237,40 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="B15" t="n">
-        <v>35.57</v>
+        <v>35.44</v>
       </c>
       <c r="C15" t="n">
-        <v>2.878749693494188</v>
+        <v>2.87880440719429</v>
       </c>
       <c r="D15" t="n">
         <v>2.88</v>
       </c>
       <c r="E15" t="n">
-        <v>22.63118576161218</v>
+        <v>22.63134037451144</v>
       </c>
       <c r="F15" t="n">
         <v>22.56</v>
       </c>
       <c r="G15" t="n">
-        <v>2.83492290453685</v>
+        <v>2.824223688611342</v>
       </c>
       <c r="H15" t="n">
-        <v>106.6588752130205</v>
+        <v>106.2555387603716</v>
       </c>
       <c r="I15" t="n">
         <v>480</v>
       </c>
       <c r="J15" t="n">
-        <v>2.22205990027126</v>
+        <v>2.213657057507742</v>
       </c>
       <c r="K15" t="n">
         <v>5</v>
       </c>
       <c r="L15" t="n">
-        <v>514.76</v>
+        <v>512.8200000000001</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -1292,40 +1292,40 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>775</v>
+        <v>764</v>
       </c>
       <c r="B16" t="n">
-        <v>83.27</v>
+        <v>82.17</v>
       </c>
       <c r="C16" t="n">
-        <v>4.438417149000047</v>
+        <v>4.440730870078688</v>
       </c>
       <c r="D16" t="n">
         <v>4.44</v>
       </c>
       <c r="E16" t="n">
-        <v>36.01976574423121</v>
+        <v>36.02060164399775</v>
       </c>
       <c r="F16" t="n">
         <v>35.96</v>
       </c>
       <c r="G16" t="n">
-        <v>4.655796548821309</v>
+        <v>4.592564083581935</v>
       </c>
       <c r="H16" t="n">
-        <v>210.4276625100344</v>
+        <v>207.6145357736578</v>
       </c>
       <c r="I16" t="n">
         <v>480</v>
       </c>
       <c r="J16" t="n">
-        <v>4.383909635625717</v>
+        <v>4.325302828617871</v>
       </c>
       <c r="K16" t="n">
         <v>10</v>
       </c>
       <c r="L16" t="n">
-        <v>1517.03</v>
+        <v>1496.97</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
@@ -1347,43 +1347,43 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>760</v>
+        <v>746</v>
       </c>
       <c r="B17" t="n">
-        <v>140.41</v>
+        <v>138.43</v>
       </c>
       <c r="C17" t="n">
-        <v>5.820031683232382</v>
+        <v>5.832786720597488</v>
       </c>
       <c r="D17" t="n">
-        <v>5.82</v>
+        <v>5.83</v>
       </c>
       <c r="E17" t="n">
-        <v>48.10696896740236</v>
+        <v>48.11285580735111</v>
       </c>
       <c r="F17" t="n">
-        <v>48.04</v>
+        <v>48.05</v>
       </c>
       <c r="G17" t="n">
-        <v>6.414658006972076</v>
+        <v>6.314705951659139</v>
       </c>
       <c r="H17" t="n">
-        <v>318.8003409789108</v>
+        <v>314.029149025472</v>
       </c>
       <c r="I17" t="n">
         <v>480</v>
       </c>
       <c r="J17" t="n">
-        <v>6.641673770393974</v>
+        <v>6.542273938030666</v>
       </c>
       <c r="K17" t="n">
         <v>15</v>
       </c>
       <c r="L17" t="n">
-        <v>3233.88</v>
+        <v>3188.06</v>
       </c>
       <c r="M17" t="n">
-        <v>811.79009369599</v>
+        <v>804.6620711348208</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -1402,43 +1402,43 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>749</v>
+        <v>728</v>
       </c>
       <c r="B18" t="n">
-        <v>192.66</v>
+        <v>188.66</v>
       </c>
       <c r="C18" t="n">
-        <v>6.867419437841543</v>
+        <v>6.893045737299057</v>
       </c>
       <c r="D18" t="n">
-        <v>6.86</v>
+        <v>6.88</v>
       </c>
       <c r="E18" t="n">
-        <v>57.72240228139189</v>
+        <v>57.72862847412209</v>
       </c>
       <c r="F18" t="n">
-        <v>57.65</v>
+        <v>57.66</v>
       </c>
       <c r="G18" t="n">
-        <v>7.907273247866189</v>
+        <v>7.725540930150117</v>
       </c>
       <c r="H18" t="n">
-        <v>409.765606224229</v>
+        <v>400.6648938974932</v>
       </c>
       <c r="I18" t="n">
         <v>480</v>
       </c>
       <c r="J18" t="n">
-        <v>8.53678346300477</v>
+        <v>8.34718528953111</v>
       </c>
       <c r="K18" t="n">
         <v>20</v>
       </c>
       <c r="L18" t="n">
-        <v>5231.62</v>
+        <v>5122.52</v>
       </c>
       <c r="M18" t="n">
-        <v>1855.448276693644</v>
+        <v>1827.128041971221</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -1457,43 +1457,43 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>733</v>
+        <v>703</v>
       </c>
       <c r="B19" t="n">
-        <v>235.67</v>
+        <v>228.6</v>
       </c>
       <c r="C19" t="n">
-        <v>7.677822127748358</v>
+        <v>7.721376361883657</v>
       </c>
       <c r="D19" t="n">
-        <v>7.66</v>
+        <v>7.7</v>
       </c>
       <c r="E19" t="n">
-        <v>65.54253944366728</v>
+        <v>65.54926770875156</v>
       </c>
       <c r="F19" t="n">
-        <v>65.45999999999999</v>
+        <v>65.47</v>
       </c>
       <c r="G19" t="n">
-        <v>9.055936388248242</v>
+        <v>8.756287873783563</v>
       </c>
       <c r="H19" t="n">
-        <v>479.6351904310097</v>
+        <v>464.2002322225469</v>
       </c>
       <c r="I19" t="n">
         <v>480</v>
       </c>
       <c r="J19" t="n">
-        <v>9.992399800646036</v>
+        <v>9.67083817130306</v>
       </c>
       <c r="K19" t="n">
         <v>25</v>
       </c>
       <c r="L19" t="n">
-        <v>7209.92</v>
+        <v>6992.7</v>
       </c>
       <c r="M19" t="n">
-        <v>3004.309691262551</v>
+        <v>2933.147096771715</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
@@ -1518,7 +1518,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="C20" t="n">
-        <v>0.5071067896828216</v>
+        <v>0.5046378119998589</v>
       </c>
       <c r="D20" t="n">
         <v>0.5</v>
@@ -1530,10 +1530,10 @@
         <v>1</v>
       </c>
       <c r="G20" t="n">
-        <v>0.04471132632587686</v>
+        <v>0.04427700939220103</v>
       </c>
       <c r="H20" t="n">
-        <v>3.33998540515714</v>
+        <v>3.31392405964298</v>
       </c>
       <c r="I20" t="n">
         <v>480</v>
@@ -1573,34 +1573,34 @@
         <v>20.27</v>
       </c>
       <c r="C21" t="n">
-        <v>3.082919582406831</v>
+        <v>3.083123131336057</v>
       </c>
       <c r="D21" t="n">
         <v>3.08</v>
       </c>
       <c r="E21" t="n">
-        <v>24.18687018441346</v>
+        <v>24.18694215578868</v>
       </c>
       <c r="F21" t="n">
-        <v>24.11</v>
+        <v>24.12</v>
       </c>
       <c r="G21" t="n">
-        <v>1.572074071001635</v>
+        <v>1.572180608195864</v>
       </c>
       <c r="H21" t="n">
-        <v>59.15086262664831</v>
+        <v>59.15713095039462</v>
       </c>
       <c r="I21" t="n">
         <v>480</v>
       </c>
       <c r="J21" t="n">
-        <v>1.232309638055173</v>
+        <v>1.232440228133221</v>
       </c>
       <c r="K21" t="n">
         <v>5</v>
       </c>
       <c r="L21" t="n">
-        <v>297</v>
+        <v>297.04</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -1622,40 +1622,40 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B22" t="n">
-        <v>48.05</v>
+        <v>47.82</v>
       </c>
       <c r="C22" t="n">
-        <v>4.789774240264854</v>
+        <v>4.790706192689362</v>
       </c>
       <c r="D22" t="n">
         <v>4.79</v>
       </c>
       <c r="E22" t="n">
-        <v>38.59195353608426</v>
+        <v>38.59200293448766</v>
       </c>
       <c r="F22" t="n">
         <v>38.52</v>
       </c>
       <c r="G22" t="n">
-        <v>2.529654293756055</v>
+        <v>2.517082980159323</v>
       </c>
       <c r="H22" t="n">
-        <v>117.8248430649955</v>
+        <v>117.2477776726247</v>
       </c>
       <c r="I22" t="n">
         <v>480</v>
       </c>
       <c r="J22" t="n">
-        <v>2.45468423052074</v>
+        <v>2.442662034846348</v>
       </c>
       <c r="K22" t="n">
         <v>10</v>
       </c>
       <c r="L22" t="n">
-        <v>920.02</v>
+        <v>915.6</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
@@ -1677,43 +1677,43 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="B23" t="n">
-        <v>86.20999999999999</v>
+        <v>84.18000000000001</v>
       </c>
       <c r="C23" t="n">
-        <v>6.457839545705093</v>
+        <v>6.458791158755397</v>
       </c>
       <c r="D23" t="n">
         <v>6.46</v>
       </c>
       <c r="E23" t="n">
-        <v>51.73485505947178</v>
+        <v>51.73604601077729</v>
       </c>
       <c r="F23" t="n">
         <v>51.66</v>
       </c>
       <c r="G23" t="n">
-        <v>3.678155951276193</v>
+        <v>3.591538273882156</v>
       </c>
       <c r="H23" t="n">
-        <v>187.8578062450037</v>
+        <v>183.4401799087207</v>
       </c>
       <c r="I23" t="n">
         <v>480</v>
       </c>
       <c r="J23" t="n">
-        <v>3.91370429677091</v>
+        <v>3.821670414765014</v>
       </c>
       <c r="K23" t="n">
         <v>15</v>
       </c>
       <c r="L23" t="n">
-        <v>2112.19</v>
+        <v>2062.66</v>
       </c>
       <c r="M23" t="n">
-        <v>667.2232485788041</v>
+        <v>651.7492909102045</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -1732,43 +1732,43 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="B24" t="n">
-        <v>124.34</v>
+        <v>122.96</v>
       </c>
       <c r="C24" t="n">
-        <v>7.849322004319163</v>
+        <v>7.869787226042682</v>
       </c>
       <c r="D24" t="n">
-        <v>7.84</v>
+        <v>7.86</v>
       </c>
       <c r="E24" t="n">
-        <v>62.19480232258932</v>
+        <v>62.20395276874774</v>
       </c>
       <c r="F24" t="n">
-        <v>62.12</v>
+        <v>62.13</v>
       </c>
       <c r="G24" t="n">
-        <v>4.722848077694607</v>
+        <v>4.663810605731426</v>
       </c>
       <c r="H24" t="n">
-        <v>250.846079483178</v>
+        <v>247.8118007372056</v>
       </c>
       <c r="I24" t="n">
         <v>480</v>
       </c>
       <c r="J24" t="n">
-        <v>5.225959989232875</v>
+        <v>5.162745848691785</v>
       </c>
       <c r="K24" t="n">
         <v>20</v>
       </c>
       <c r="L24" t="n">
-        <v>3609.48</v>
+        <v>3569.7</v>
       </c>
       <c r="M24" t="n">
-        <v>1534.181162039793</v>
+        <v>1521.744597152295</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -1787,46 +1787,46 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="B25" t="n">
-        <v>161.81</v>
+        <v>159.08</v>
       </c>
       <c r="C25" t="n">
-        <v>9.00336609432453</v>
+        <v>9.03871189131738</v>
       </c>
       <c r="D25" t="n">
-        <v>8.99</v>
+        <v>9.029999999999999</v>
       </c>
       <c r="E25" t="n">
-        <v>70.60240103433362</v>
+        <v>70.61172663898297</v>
       </c>
       <c r="F25" t="n">
-        <v>70.52</v>
+        <v>70.53</v>
       </c>
       <c r="G25" t="n">
-        <v>5.716046149087567</v>
+        <v>5.608394827028722</v>
       </c>
       <c r="H25" t="n">
-        <v>309.2437745788578</v>
+        <v>303.5422985133637</v>
       </c>
       <c r="I25" t="n">
         <v>480</v>
       </c>
       <c r="J25" t="n">
-        <v>6.442578637059539</v>
+        <v>6.323797885695078</v>
       </c>
       <c r="K25" t="n">
         <v>25</v>
       </c>
       <c r="L25" t="n">
-        <v>5299.44</v>
+        <v>5210.08</v>
       </c>
       <c r="M25" t="n">
-        <v>2599.462041058564</v>
+        <v>2564.185921973962</v>
       </c>
       <c r="N25" t="n">
-        <v>1802.544187340055</v>
+        <v>1820.355440779989</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -1845,10 +1845,10 @@
         <v>600</v>
       </c>
       <c r="B26" t="n">
-        <v>0.86</v>
+        <v>0.84</v>
       </c>
       <c r="C26" t="n">
-        <v>0.5122343600027067</v>
+        <v>0.5069303292016513</v>
       </c>
       <c r="D26" t="n">
         <v>0.5</v>
@@ -1860,10 +1860,10 @@
         <v>1</v>
       </c>
       <c r="G26" t="n">
-        <v>0.06843013162633683</v>
+        <v>0.06702032233944388</v>
       </c>
       <c r="H26" t="n">
-        <v>5.091532556908802</v>
+        <v>5.007180330197106</v>
       </c>
       <c r="I26" t="n">
         <v>480</v>
@@ -1875,7 +1875,7 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>112.34</v>
+        <v>112.33</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -1897,40 +1897,40 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="B27" t="n">
-        <v>30.62</v>
+        <v>30.52</v>
       </c>
       <c r="C27" t="n">
-        <v>3.082095968596128</v>
+        <v>3.082442606017842</v>
       </c>
       <c r="D27" t="n">
         <v>3.08</v>
       </c>
       <c r="E27" t="n">
-        <v>24.18340976931588</v>
+        <v>24.18361595347733</v>
       </c>
       <c r="F27" t="n">
         <v>24.11</v>
       </c>
       <c r="G27" t="n">
-        <v>2.375562528747458</v>
+        <v>2.367793274934866</v>
       </c>
       <c r="H27" t="n">
-        <v>89.36872531200785</v>
+        <v>89.08237109422427</v>
       </c>
       <c r="I27" t="n">
         <v>480</v>
       </c>
       <c r="J27" t="n">
-        <v>1.861848444000164</v>
+        <v>1.855882731129672</v>
       </c>
       <c r="K27" t="n">
         <v>5</v>
       </c>
       <c r="L27" t="n">
-        <v>448.65</v>
+        <v>447.24</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -1952,40 +1952,40 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>583</v>
+        <v>577</v>
       </c>
       <c r="B28" t="n">
-        <v>71.28</v>
+        <v>70.56999999999999</v>
       </c>
       <c r="C28" t="n">
-        <v>4.734589937962303</v>
+        <v>4.735490538527365</v>
       </c>
       <c r="D28" t="n">
-        <v>4.73</v>
+        <v>4.74</v>
       </c>
       <c r="E28" t="n">
-        <v>38.53195831755738</v>
+        <v>38.53269413804813</v>
       </c>
       <c r="F28" t="n">
         <v>38.46</v>
       </c>
       <c r="G28" t="n">
-        <v>3.786373951174134</v>
+        <v>3.748279699054601</v>
       </c>
       <c r="H28" t="n">
-        <v>175.5887794109723</v>
+        <v>173.8347491400995</v>
       </c>
       <c r="I28" t="n">
         <v>480</v>
       </c>
       <c r="J28" t="n">
-        <v>3.658099571061922</v>
+        <v>3.621557273752072</v>
       </c>
       <c r="K28" t="n">
         <v>10</v>
       </c>
       <c r="L28" t="n">
-        <v>1365.28</v>
+        <v>1351.79</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
@@ -2007,43 +2007,43 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="B29" t="n">
-        <v>120.86</v>
+        <v>120.47</v>
       </c>
       <c r="C29" t="n">
-        <v>6.229624693877497</v>
+        <v>6.23588553067743</v>
       </c>
       <c r="D29" t="n">
         <v>6.23</v>
       </c>
       <c r="E29" t="n">
-        <v>51.56040741624356</v>
+        <v>51.56462471523944</v>
       </c>
       <c r="F29" t="n">
-        <v>51.48</v>
+        <v>51.49</v>
       </c>
       <c r="G29" t="n">
-        <v>5.277119265642262</v>
+        <v>5.256511000319412</v>
       </c>
       <c r="H29" t="n">
-        <v>267.1452341435246</v>
+        <v>266.1704516264015</v>
       </c>
       <c r="I29" t="n">
         <v>480</v>
       </c>
       <c r="J29" t="n">
-        <v>5.56552571132343</v>
+        <v>5.545217742216697</v>
       </c>
       <c r="K29" t="n">
         <v>15</v>
       </c>
       <c r="L29" t="n">
-        <v>2958.89</v>
+        <v>2949.36</v>
       </c>
       <c r="M29" t="n">
-        <v>872.4953957906248</v>
+        <v>871.451231300169</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -2062,43 +2062,43 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="B30" t="n">
-        <v>168.27</v>
+        <v>168.24</v>
       </c>
       <c r="C30" t="n">
-        <v>7.409146905414201</v>
+        <v>7.421732841624435</v>
       </c>
       <c r="D30" t="n">
-        <v>7.4</v>
+        <v>7.41</v>
       </c>
       <c r="E30" t="n">
-        <v>61.88679785978735</v>
+        <v>61.89109027027713</v>
       </c>
       <c r="F30" t="n">
-        <v>61.8</v>
+        <v>61.81</v>
       </c>
       <c r="G30" t="n">
-        <v>6.602523326464873</v>
+        <v>6.594945834366238</v>
       </c>
       <c r="H30" t="n">
-        <v>347.3075992653951</v>
+        <v>347.0156496340515</v>
       </c>
       <c r="I30" t="n">
         <v>480</v>
       </c>
       <c r="J30" t="n">
-        <v>7.235574984695731</v>
+        <v>7.229492700709407</v>
       </c>
       <c r="K30" t="n">
         <v>20</v>
       </c>
       <c r="L30" t="n">
-        <v>4872.38</v>
+        <v>4871.72</v>
       </c>
       <c r="M30" t="n">
-        <v>1932.220625767429</v>
+        <v>1936.158887499104</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -2117,46 +2117,46 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="B31" t="n">
-        <v>209.6</v>
+        <v>208.6</v>
       </c>
       <c r="C31" t="n">
-        <v>8.343798964078873</v>
+        <v>8.354073179750159</v>
       </c>
       <c r="D31" t="n">
-        <v>8.33</v>
+        <v>8.34</v>
       </c>
       <c r="E31" t="n">
-        <v>70.28881975617941</v>
+        <v>70.29313464835813</v>
       </c>
       <c r="F31" t="n">
-        <v>70.2</v>
+        <v>70.20999999999999</v>
       </c>
       <c r="G31" t="n">
-        <v>7.697757624271323</v>
+        <v>7.655771373807723</v>
       </c>
       <c r="H31" t="n">
-        <v>412.7889161689919</v>
+        <v>410.6078900211617</v>
       </c>
       <c r="I31" t="n">
         <v>480</v>
       </c>
       <c r="J31" t="n">
-        <v>8.599769086853998</v>
+        <v>8.554331042107535</v>
       </c>
       <c r="K31" t="n">
         <v>25</v>
       </c>
       <c r="L31" t="n">
-        <v>6848.79</v>
+        <v>6816.2</v>
       </c>
       <c r="M31" t="n">
-        <v>3133.27145616747</v>
+        <v>3122.218744743187</v>
       </c>
       <c r="N31" t="n">
-        <v>527.5112117334669</v>
+        <v>554.6286189710958</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -2175,10 +2175,10 @@
         <v>800</v>
       </c>
       <c r="B32" t="n">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="C32" t="n">
-        <v>0.5049208309767983</v>
+        <v>0.5121165017110929</v>
       </c>
       <c r="D32" t="n">
         <v>0.5</v>
@@ -2190,10 +2190,10 @@
         <v>1</v>
       </c>
       <c r="G32" t="n">
-        <v>0.08865337517494323</v>
+        <v>0.09119819403805228</v>
       </c>
       <c r="H32" t="n">
-        <v>6.633815132783205</v>
+        <v>6.786203253842378</v>
       </c>
       <c r="I32" t="n">
         <v>480</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>149.77</v>
+        <v>149.79</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -2227,40 +2227,40 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="B33" t="n">
-        <v>40.89</v>
+        <v>40.77</v>
       </c>
       <c r="C33" t="n">
-        <v>3.082470717038508</v>
+        <v>3.081720772929349</v>
       </c>
       <c r="D33" t="n">
         <v>3.08</v>
       </c>
       <c r="E33" t="n">
-        <v>24.18045212635549</v>
+        <v>24.1800799474032</v>
       </c>
       <c r="F33" t="n">
         <v>24.11</v>
       </c>
       <c r="G33" t="n">
-        <v>3.171829425350109</v>
+        <v>3.163008393817661</v>
       </c>
       <c r="H33" t="n">
-        <v>119.3328006503842</v>
+        <v>118.9838331981389</v>
       </c>
       <c r="I33" t="n">
         <v>480</v>
       </c>
       <c r="J33" t="n">
-        <v>2.48610001354967</v>
+        <v>2.47882985829456</v>
       </c>
       <c r="K33" t="n">
         <v>5</v>
       </c>
       <c r="L33" t="n">
-        <v>599.11</v>
+        <v>597.27</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -2282,40 +2282,40 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="B34" t="n">
-        <v>92.17</v>
+        <v>92.45999999999999</v>
       </c>
       <c r="C34" t="n">
-        <v>4.660580562193312</v>
+        <v>4.661939025022103</v>
       </c>
       <c r="D34" t="n">
         <v>4.66</v>
       </c>
       <c r="E34" t="n">
-        <v>38.47293063208498</v>
+        <v>38.47322905877403</v>
       </c>
       <c r="F34" t="n">
         <v>38.4</v>
       </c>
       <c r="G34" t="n">
-        <v>4.956631574363167</v>
+        <v>4.971125870287199</v>
       </c>
       <c r="H34" t="n">
-        <v>228.4682359035901</v>
+        <v>229.1627250508561</v>
       </c>
       <c r="I34" t="n">
         <v>480</v>
       </c>
       <c r="J34" t="n">
-        <v>4.759754914658127</v>
+        <v>4.774223438559503</v>
       </c>
       <c r="K34" t="n">
         <v>10</v>
       </c>
       <c r="L34" t="n">
-        <v>1767.7</v>
+        <v>1773.01</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
@@ -2337,43 +2337,43 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>762</v>
+        <v>768</v>
       </c>
       <c r="B35" t="n">
-        <v>150.38</v>
+        <v>151.58</v>
       </c>
       <c r="C35" t="n">
-        <v>6.015207615818499</v>
+        <v>6.015482489013594</v>
       </c>
       <c r="D35" t="n">
         <v>6.01</v>
       </c>
       <c r="E35" t="n">
-        <v>51.39826960570481</v>
+        <v>51.39714075803821</v>
       </c>
       <c r="F35" t="n">
         <v>51.32</v>
       </c>
       <c r="G35" t="n">
-        <v>6.718649390403705</v>
+        <v>6.771948002534098</v>
       </c>
       <c r="H35" t="n">
-        <v>337.0173187695706</v>
+        <v>339.695911172372</v>
       </c>
       <c r="I35" t="n">
         <v>480</v>
       </c>
       <c r="J35" t="n">
-        <v>7.021194141032721</v>
+        <v>7.076998149424417</v>
       </c>
       <c r="K35" t="n">
         <v>15</v>
       </c>
       <c r="L35" t="n">
-        <v>3680.35</v>
+        <v>3709.25</v>
       </c>
       <c r="M35" t="n">
-        <v>1007.773076611359</v>
+        <v>1015.800267069433</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -2392,43 +2392,43 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>742</v>
+        <v>752</v>
       </c>
       <c r="B36" t="n">
-        <v>200.49</v>
+        <v>202.65</v>
       </c>
       <c r="C36" t="n">
-        <v>7.038471569291886</v>
+        <v>7.029144987446497</v>
       </c>
       <c r="D36" t="n">
-        <v>7.03</v>
+        <v>7.02</v>
       </c>
       <c r="E36" t="n">
-        <v>61.71940606598112</v>
+        <v>61.7180829594423</v>
       </c>
       <c r="F36" t="n">
-        <v>61.64</v>
+        <v>61.63</v>
       </c>
       <c r="G36" t="n">
-        <v>8.106435302426815</v>
+        <v>8.200434120019647</v>
       </c>
       <c r="H36" t="n">
-        <v>422.2859909005693</v>
+        <v>427.0673354673544</v>
       </c>
       <c r="I36" t="n">
         <v>480</v>
       </c>
       <c r="J36" t="n">
-        <v>8.797624810428529</v>
+        <v>8.897236155569884</v>
       </c>
       <c r="K36" t="n">
         <v>20</v>
       </c>
       <c r="L36" t="n">
-        <v>5804.07</v>
+        <v>5866.43</v>
       </c>
       <c r="M36" t="n">
-        <v>2147.587867895385</v>
+        <v>2166.525004204006</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -2447,43 +2447,43 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="B37" t="n">
-        <v>243.76</v>
+        <v>243.32</v>
       </c>
       <c r="C37" t="n">
-        <v>7.829838103619044</v>
+        <v>7.812087172118972</v>
       </c>
       <c r="D37" t="n">
-        <v>7.81</v>
+        <v>7.79</v>
       </c>
       <c r="E37" t="n">
-        <v>70.11696600044573</v>
+        <v>70.1153640084721</v>
       </c>
       <c r="F37" t="n">
-        <v>70.03</v>
+        <v>70.02</v>
       </c>
       <c r="G37" t="n">
-        <v>9.263723054640218</v>
+        <v>9.258750060204248</v>
       </c>
       <c r="H37" t="n">
-        <v>492.2670236720567</v>
+        <v>491.8226682172628</v>
       </c>
       <c r="I37" t="n">
         <v>480</v>
       </c>
       <c r="J37" t="n">
-        <v>10.25556299316785</v>
+        <v>10.24630558785964</v>
       </c>
       <c r="K37" t="n">
         <v>25</v>
       </c>
       <c r="L37" t="n">
-        <v>7962.4</v>
+        <v>7947.87</v>
       </c>
       <c r="M37" t="n">
-        <v>3408.421932504852</v>
+        <v>3393.505225853706</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
@@ -2505,13 +2505,13 @@
         <v>400</v>
       </c>
       <c r="B38" t="n">
-        <v>0.55</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="C38" t="n">
-        <v>0.5031029207186603</v>
+        <v>0.5062059157706659</v>
       </c>
       <c r="D38" t="n">
-        <v>0.49</v>
+        <v>0.5</v>
       </c>
       <c r="E38" t="n">
         <v>1</v>
@@ -2520,10 +2520,10 @@
         <v>1</v>
       </c>
       <c r="G38" t="n">
-        <v>0.04400807574947242</v>
+        <v>0.04455260831903524</v>
       </c>
       <c r="H38" t="n">
-        <v>3.297761300855658</v>
+        <v>3.330467295850505</v>
       </c>
       <c r="I38" t="n">
         <v>480</v>
@@ -2557,40 +2557,40 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B39" t="n">
-        <v>23.36</v>
+        <v>23.3</v>
       </c>
       <c r="C39" t="n">
-        <v>3.288768918509616</v>
+        <v>3.288398309513191</v>
       </c>
       <c r="D39" t="n">
         <v>3.29</v>
       </c>
       <c r="E39" t="n">
-        <v>25.7319973353837</v>
+        <v>25.73191239117592</v>
       </c>
       <c r="F39" t="n">
         <v>25.65</v>
       </c>
       <c r="G39" t="n">
-        <v>1.701537838278235</v>
+        <v>1.697039565022926</v>
       </c>
       <c r="H39" t="n">
-        <v>66.45592811782504</v>
+        <v>66.27612124155526</v>
       </c>
       <c r="I39" t="n">
         <v>480</v>
       </c>
       <c r="J39" t="n">
-        <v>1.384498502454688</v>
+        <v>1.380752525865735</v>
       </c>
       <c r="K39" t="n">
         <v>5</v>
       </c>
       <c r="L39" t="n">
-        <v>348.6</v>
+        <v>347.63</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -2612,43 +2612,43 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="B40" t="n">
-        <v>53.83</v>
+        <v>54.21</v>
       </c>
       <c r="C40" t="n">
-        <v>5.056661406683992</v>
+        <v>5.061279034437455</v>
       </c>
       <c r="D40" t="n">
         <v>5.06</v>
       </c>
       <c r="E40" t="n">
-        <v>41.07997748092043</v>
+        <v>41.08026419296534</v>
       </c>
       <c r="F40" t="n">
         <v>41</v>
       </c>
       <c r="G40" t="n">
-        <v>2.719758927940854</v>
+        <v>2.736966335662</v>
       </c>
       <c r="H40" t="n">
-        <v>129.20782709015</v>
+        <v>130.0677048513072</v>
       </c>
       <c r="I40" t="n">
         <v>480</v>
       </c>
       <c r="J40" t="n">
-        <v>2.691829731044793</v>
+        <v>2.709743851068899</v>
       </c>
       <c r="K40" t="n">
         <v>10</v>
       </c>
       <c r="L40" t="n">
-        <v>1083.8</v>
+        <v>1091.21</v>
       </c>
       <c r="M40" t="n">
-        <v>132.8939049862538</v>
+        <v>135.6151477382022</v>
       </c>
       <c r="N40" t="n">
         <v>0</v>
@@ -2667,43 +2667,43 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="B41" t="n">
-        <v>93.05</v>
+        <v>94.64</v>
       </c>
       <c r="C41" t="n">
-        <v>6.718006079949824</v>
+        <v>6.7309938155791</v>
       </c>
       <c r="D41" t="n">
-        <v>6.72</v>
+        <v>6.73</v>
       </c>
       <c r="E41" t="n">
-        <v>55.08722332047669</v>
+        <v>55.08553755831472</v>
       </c>
       <c r="F41" t="n">
-        <v>55.01</v>
+        <v>55</v>
       </c>
       <c r="G41" t="n">
-        <v>3.872706456883</v>
+        <v>3.934330402927592</v>
       </c>
       <c r="H41" t="n">
-        <v>199.6239431384621</v>
+        <v>202.8924452960736</v>
       </c>
       <c r="I41" t="n">
         <v>480</v>
       </c>
       <c r="J41" t="n">
-        <v>4.15883214871796</v>
+        <v>4.226925943668201</v>
       </c>
       <c r="K41" t="n">
         <v>15</v>
       </c>
       <c r="L41" t="n">
-        <v>2416.77</v>
+        <v>2457.73</v>
       </c>
       <c r="M41" t="n">
-        <v>822.6397641748911</v>
+        <v>839.2971895631372</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -2722,43 +2722,43 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="B42" t="n">
-        <v>133.08</v>
+        <v>136.27</v>
       </c>
       <c r="C42" t="n">
-        <v>8.098753831295559</v>
+        <v>8.119233418072971</v>
       </c>
       <c r="D42" t="n">
-        <v>8.09</v>
+        <v>8.109999999999999</v>
       </c>
       <c r="E42" t="n">
-        <v>66.23635821838023</v>
+        <v>66.22798758325713</v>
       </c>
       <c r="F42" t="n">
-        <v>66.15000000000001</v>
+        <v>66.14</v>
       </c>
       <c r="G42" t="n">
-        <v>4.968766235407887</v>
+        <v>5.080664111661002</v>
       </c>
       <c r="H42" t="n">
-        <v>265.1881711987471</v>
+        <v>271.2756597300116</v>
       </c>
       <c r="I42" t="n">
         <v>480</v>
       </c>
       <c r="J42" t="n">
-        <v>5.524753566640563</v>
+        <v>5.651576244375241</v>
       </c>
       <c r="K42" t="n">
         <v>20</v>
       </c>
       <c r="L42" t="n">
-        <v>4105.07</v>
+        <v>4202.45</v>
       </c>
       <c r="M42" t="n">
-        <v>1812.984868157399</v>
+        <v>1861.221955708581</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -2777,46 +2777,46 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>361</v>
+        <v>375</v>
       </c>
       <c r="B43" t="n">
-        <v>167.71</v>
+        <v>175.26</v>
       </c>
       <c r="C43" t="n">
-        <v>9.229141039154854</v>
+        <v>9.256918528649962</v>
       </c>
       <c r="D43" t="n">
-        <v>9.220000000000001</v>
+        <v>9.24</v>
       </c>
       <c r="E43" t="n">
-        <v>75.22313561580933</v>
+        <v>75.21441008968623</v>
       </c>
       <c r="F43" t="n">
-        <v>75.13</v>
+        <v>75.12</v>
       </c>
       <c r="G43" t="n">
-        <v>5.851464931429163</v>
+        <v>6.105365099687184</v>
       </c>
       <c r="H43" t="n">
-        <v>317.388408013624</v>
+        <v>331.2912047984769</v>
       </c>
       <c r="I43" t="n">
         <v>480</v>
       </c>
       <c r="J43" t="n">
-        <v>6.612258500283833</v>
+        <v>6.90190009996827</v>
       </c>
       <c r="K43" t="n">
         <v>25</v>
       </c>
       <c r="L43" t="n">
-        <v>5843.9</v>
+        <v>6105.81</v>
       </c>
       <c r="M43" t="n">
-        <v>2935.522122253071</v>
+        <v>3075.332975162576</v>
       </c>
       <c r="N43" t="n">
-        <v>2652.863252683659</v>
+        <v>2843.625931711033</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
@@ -2835,13 +2835,13 @@
         <v>600</v>
       </c>
       <c r="B44" t="n">
-        <v>0.87</v>
+        <v>0.83</v>
       </c>
       <c r="C44" t="n">
-        <v>0.5167286670670675</v>
+        <v>0.5040400926720435</v>
       </c>
       <c r="D44" t="n">
-        <v>0.51</v>
+        <v>0.49</v>
       </c>
       <c r="E44" t="n">
         <v>1</v>
@@ -2850,10 +2850,10 @@
         <v>1</v>
       </c>
       <c r="G44" t="n">
-        <v>0.06963620150895246</v>
+        <v>0.06625827527107217</v>
       </c>
       <c r="H44" t="n">
-        <v>5.163422379506356</v>
+        <v>4.961439594440076</v>
       </c>
       <c r="I44" t="n">
         <v>480</v>
@@ -2865,7 +2865,7 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>112.35</v>
+        <v>112.33</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -2887,40 +2887,40 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="B45" t="n">
-        <v>34.62</v>
+        <v>34.66</v>
       </c>
       <c r="C45" t="n">
-        <v>3.288216436107601</v>
+        <v>3.287613472256953</v>
       </c>
       <c r="D45" t="n">
         <v>3.29</v>
       </c>
       <c r="E45" t="n">
-        <v>25.72799948298428</v>
+        <v>25.72852642165479</v>
       </c>
       <c r="F45" t="n">
         <v>25.65</v>
       </c>
       <c r="G45" t="n">
-        <v>2.521787387384394</v>
+        <v>2.525595930162866</v>
       </c>
       <c r="H45" t="n">
-        <v>98.4826069924154</v>
+        <v>98.62134750433191</v>
       </c>
       <c r="I45" t="n">
         <v>480</v>
       </c>
       <c r="J45" t="n">
-        <v>2.051720979008654</v>
+        <v>2.054611406340248</v>
       </c>
       <c r="K45" t="n">
         <v>5</v>
       </c>
       <c r="L45" t="n">
-        <v>516.53</v>
+        <v>517.2</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -2942,43 +2942,43 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>575</v>
+        <v>579</v>
       </c>
       <c r="B46" t="n">
-        <v>77.91</v>
+        <v>78.43000000000001</v>
       </c>
       <c r="C46" t="n">
-        <v>4.984195229189956</v>
+        <v>4.98346704412087</v>
       </c>
       <c r="D46" t="n">
         <v>4.98</v>
       </c>
       <c r="E46" t="n">
-        <v>41.01069533436971</v>
+        <v>41.01095169733355</v>
       </c>
       <c r="F46" t="n">
         <v>40.93</v>
       </c>
       <c r="G46" t="n">
-        <v>3.978878008277796</v>
+        <v>4.0058134148707</v>
       </c>
       <c r="H46" t="n">
-        <v>188.0649626865107</v>
+        <v>189.328836781443</v>
       </c>
       <c r="I46" t="n">
         <v>480</v>
       </c>
       <c r="J46" t="n">
-        <v>3.918020055968973</v>
+        <v>3.944350766280063</v>
       </c>
       <c r="K46" t="n">
         <v>10</v>
       </c>
       <c r="L46" t="n">
-        <v>1569.11</v>
+        <v>1579.46</v>
       </c>
       <c r="M46" t="n">
-        <v>122.9181494547193</v>
+        <v>120.2653060945335</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
@@ -2997,43 +2997,43 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>560</v>
+        <v>564</v>
       </c>
       <c r="B47" t="n">
-        <v>128.31</v>
+        <v>129.18</v>
       </c>
       <c r="C47" t="n">
-        <v>6.481535435822491</v>
+        <v>6.480256974851422</v>
       </c>
       <c r="D47" t="n">
         <v>6.48</v>
       </c>
       <c r="E47" t="n">
-        <v>54.8914543164208</v>
+        <v>54.8889848147075</v>
       </c>
       <c r="F47" t="n">
-        <v>54.81</v>
+        <v>54.8</v>
       </c>
       <c r="G47" t="n">
-        <v>5.461076754285999</v>
+        <v>5.498540148269834</v>
       </c>
       <c r="H47" t="n">
-        <v>279.2100562326461</v>
+        <v>281.1153951627966</v>
       </c>
       <c r="I47" t="n">
         <v>480</v>
       </c>
       <c r="J47" t="n">
-        <v>5.816876171513461</v>
+        <v>5.856570732558263</v>
       </c>
       <c r="K47" t="n">
         <v>15</v>
       </c>
       <c r="L47" t="n">
-        <v>3328.48</v>
+        <v>3350.67</v>
       </c>
       <c r="M47" t="n">
-        <v>1065.828047490854</v>
+        <v>1072.605257070818</v>
       </c>
       <c r="N47" t="n">
         <v>0</v>
@@ -3052,43 +3052,43 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="B48" t="n">
-        <v>176.51</v>
+        <v>176.87</v>
       </c>
       <c r="C48" t="n">
-        <v>7.670886812988396</v>
+        <v>7.664714646733268</v>
       </c>
       <c r="D48" t="n">
-        <v>7.66</v>
+        <v>7.65</v>
       </c>
       <c r="E48" t="n">
-        <v>65.92553732509359</v>
+        <v>65.92292191239629</v>
       </c>
       <c r="F48" t="n">
-        <v>65.84</v>
+        <v>65.83</v>
       </c>
       <c r="G48" t="n">
-        <v>6.789226800630417</v>
+        <v>6.805841069862574</v>
       </c>
       <c r="H48" t="n">
-        <v>359.3683591936527</v>
+        <v>360.2094839645756</v>
       </c>
       <c r="I48" t="n">
         <v>480</v>
       </c>
       <c r="J48" t="n">
-        <v>7.486840816534432</v>
+        <v>7.504364249261992</v>
       </c>
       <c r="K48" t="n">
         <v>20</v>
       </c>
       <c r="L48" t="n">
-        <v>5430.47</v>
+        <v>5441.16</v>
       </c>
       <c r="M48" t="n">
-        <v>2258.296248420834</v>
+        <v>2260.787958865605</v>
       </c>
       <c r="N48" t="n">
         <v>0</v>
@@ -3107,46 +3107,46 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="B49" t="n">
-        <v>218.04</v>
+        <v>219.38</v>
       </c>
       <c r="C49" t="n">
-        <v>8.612028228169784</v>
+        <v>8.606635552794639</v>
       </c>
       <c r="D49" t="n">
-        <v>8.59</v>
+        <v>8.58</v>
       </c>
       <c r="E49" t="n">
-        <v>74.90654101982086</v>
+        <v>74.90387291394637</v>
       </c>
       <c r="F49" t="n">
         <v>74.81</v>
       </c>
       <c r="G49" t="n">
-        <v>7.873817798674335</v>
+        <v>7.924475710361778</v>
       </c>
       <c r="H49" t="n">
-        <v>424.065560699187</v>
+        <v>426.7833398908897</v>
       </c>
       <c r="I49" t="n">
         <v>480</v>
       </c>
       <c r="J49" t="n">
-        <v>8.834699181233063</v>
+        <v>8.891319581060204</v>
       </c>
       <c r="K49" t="n">
         <v>25</v>
       </c>
       <c r="L49" t="n">
-        <v>7578.94</v>
+        <v>7625.23</v>
       </c>
       <c r="M49" t="n">
-        <v>3587.777661958886</v>
+        <v>3608.054814196842</v>
       </c>
       <c r="N49" t="n">
-        <v>2128.75646286479</v>
+        <v>1987.332370487607</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
@@ -3165,10 +3165,10 @@
         <v>800</v>
       </c>
       <c r="B50" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="C50" t="n">
-        <v>0.5113188566543061</v>
+        <v>0.5092667921025946</v>
       </c>
       <c r="D50" t="n">
         <v>0.5</v>
@@ -3180,10 +3180,10 @@
         <v>1</v>
       </c>
       <c r="G50" t="n">
-        <v>0.09091432449853314</v>
+        <v>0.09118171325285371</v>
       </c>
       <c r="H50" t="n">
-        <v>6.769246680356276</v>
+        <v>6.725696822062408</v>
       </c>
       <c r="I50" t="n">
         <v>480</v>
@@ -3195,7 +3195,7 @@
         <v>0</v>
       </c>
       <c r="L50" t="n">
-        <v>149.79</v>
+        <v>149.78</v>
       </c>
       <c r="M50" t="n">
         <v>0</v>
@@ -3217,40 +3217,40 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>784</v>
+        <v>787</v>
       </c>
       <c r="B51" t="n">
-        <v>46.22</v>
+        <v>46.4</v>
       </c>
       <c r="C51" t="n">
-        <v>3.287619701590327</v>
+        <v>3.287946626279667</v>
       </c>
       <c r="D51" t="n">
         <v>3.29</v>
       </c>
       <c r="E51" t="n">
-        <v>25.72468020806549</v>
+        <v>25.72478272939507</v>
       </c>
       <c r="F51" t="n">
         <v>25.65</v>
       </c>
       <c r="G51" t="n">
-        <v>3.367471025011036</v>
+        <v>3.380708433703578</v>
       </c>
       <c r="H51" t="n">
-        <v>131.495529900594</v>
+        <v>132.019769600008</v>
       </c>
       <c r="I51" t="n">
         <v>480</v>
       </c>
       <c r="J51" t="n">
-        <v>2.739490206262374</v>
+        <v>2.750411866666833</v>
       </c>
       <c r="K51" t="n">
         <v>5</v>
       </c>
       <c r="L51" t="n">
-        <v>689.6</v>
+        <v>692.4</v>
       </c>
       <c r="M51" t="n">
         <v>0</v>
@@ -3272,43 +3272,43 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>768</v>
+        <v>777</v>
       </c>
       <c r="B52" t="n">
-        <v>100.38</v>
+        <v>101.67</v>
       </c>
       <c r="C52" t="n">
-        <v>4.895389219023003</v>
+        <v>4.89799353667312</v>
       </c>
       <c r="D52" t="n">
-        <v>4.89</v>
+        <v>4.9</v>
       </c>
       <c r="E52" t="n">
-        <v>40.94008975354656</v>
+        <v>40.93911469195518</v>
       </c>
       <c r="F52" t="n">
         <v>40.86</v>
       </c>
       <c r="G52" t="n">
-        <v>5.196842745718773</v>
+        <v>5.261171088387377</v>
       </c>
       <c r="H52" t="n">
-        <v>244.0448905615303</v>
+        <v>247.1156452915369</v>
       </c>
       <c r="I52" t="n">
         <v>480</v>
       </c>
       <c r="J52" t="n">
-        <v>5.084268553365215</v>
+        <v>5.148242610240353</v>
       </c>
       <c r="K52" t="n">
         <v>10</v>
       </c>
       <c r="L52" t="n">
-        <v>2023.54</v>
+        <v>2049.34</v>
       </c>
       <c r="M52" t="n">
-        <v>60.89529769665682</v>
+        <v>93.08452682502073</v>
       </c>
       <c r="N52" t="n">
         <v>0</v>
@@ -3327,43 +3327,43 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>753</v>
+        <v>761</v>
       </c>
       <c r="B53" t="n">
-        <v>159.77</v>
+        <v>161.64</v>
       </c>
       <c r="C53" t="n">
-        <v>6.237113202333852</v>
+        <v>6.24053326238892</v>
       </c>
       <c r="D53" t="n">
         <v>6.23</v>
       </c>
       <c r="E53" t="n">
-        <v>54.70256885671905</v>
+        <v>54.69485951825559</v>
       </c>
       <c r="F53" t="n">
-        <v>54.62</v>
+        <v>54.61</v>
       </c>
       <c r="G53" t="n">
-        <v>6.969071140500418</v>
+        <v>7.048054203656798</v>
       </c>
       <c r="H53" t="n">
-        <v>352.9747966491523</v>
+        <v>357.0388615391628</v>
       </c>
       <c r="I53" t="n">
         <v>480</v>
       </c>
       <c r="J53" t="n">
-        <v>7.353641596857338</v>
+        <v>7.438309615399224</v>
       </c>
       <c r="K53" t="n">
         <v>15</v>
       </c>
       <c r="L53" t="n">
-        <v>4140.89</v>
+        <v>4188.98</v>
       </c>
       <c r="M53" t="n">
-        <v>1233.370888165947</v>
+        <v>1249.265582174902</v>
       </c>
       <c r="N53" t="n">
         <v>0</v>
@@ -3382,43 +3382,43 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>737</v>
+        <v>745</v>
       </c>
       <c r="B54" t="n">
-        <v>211.14</v>
+        <v>213.51</v>
       </c>
       <c r="C54" t="n">
-        <v>7.247549941032633</v>
+        <v>7.248824891525107</v>
       </c>
       <c r="D54" t="n">
         <v>7.23</v>
       </c>
       <c r="E54" t="n">
-        <v>65.73077858693696</v>
+        <v>65.72276162828116</v>
       </c>
       <c r="F54" t="n">
-        <v>65.64</v>
+        <v>65.63</v>
       </c>
       <c r="G54" t="n">
-        <v>8.388697804434676</v>
+        <v>8.481099168900494</v>
       </c>
       <c r="H54" t="n">
-        <v>439.6169112547402</v>
+        <v>444.5143490971416</v>
       </c>
       <c r="I54" t="n">
         <v>480</v>
       </c>
       <c r="J54" t="n">
-        <v>9.158685651140422</v>
+        <v>9.26071560619045</v>
       </c>
       <c r="K54" t="n">
         <v>20</v>
       </c>
       <c r="L54" t="n">
-        <v>6491.41</v>
+        <v>6563.63</v>
       </c>
       <c r="M54" t="n">
-        <v>2514.837635440756</v>
+        <v>2544.136756340772</v>
       </c>
       <c r="N54" t="n">
         <v>0</v>
@@ -3437,46 +3437,46 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>720</v>
+        <v>726</v>
       </c>
       <c r="B55" t="n">
-        <v>253.53</v>
+        <v>255.62</v>
       </c>
       <c r="C55" t="n">
-        <v>8.034994039988348</v>
+        <v>8.034694771925412</v>
       </c>
       <c r="D55" t="n">
-        <v>8.01</v>
+        <v>8</v>
       </c>
       <c r="E55" t="n">
-        <v>74.70670946095473</v>
+        <v>74.69839944568575</v>
       </c>
       <c r="F55" t="n">
-        <v>74.61</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="G55" t="n">
-        <v>9.496032996310252</v>
+        <v>9.573205787343412</v>
       </c>
       <c r="H55" t="n">
-        <v>506.7973304317077</v>
+        <v>510.9900934751601</v>
       </c>
       <c r="I55" t="n">
         <v>480</v>
       </c>
       <c r="J55" t="n">
-        <v>10.55827771732725</v>
+        <v>10.64562694739917</v>
       </c>
       <c r="K55" t="n">
         <v>25</v>
       </c>
       <c r="L55" t="n">
-        <v>8806.559999999999</v>
+        <v>8878.629999999999</v>
       </c>
       <c r="M55" t="n">
-        <v>3894.659537038548</v>
+        <v>3927.926131898766</v>
       </c>
       <c r="N55" t="n">
-        <v>1009.500809956277</v>
+        <v>1419.129972170006</v>
       </c>
       <c r="O55" t="inlineStr">
         <is>
@@ -3495,13 +3495,13 @@
         <v>400</v>
       </c>
       <c r="B56" t="n">
-        <v>0.58</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="C56" t="n">
-        <v>0.5153987450088318</v>
+        <v>0.5079570765669413</v>
       </c>
       <c r="D56" t="n">
-        <v>0.51</v>
+        <v>0.5</v>
       </c>
       <c r="E56" t="n">
         <v>1</v>
@@ -3510,10 +3510,10 @@
         <v>1</v>
       </c>
       <c r="G56" t="n">
-        <v>0.03697692075521283</v>
+        <v>0.03591683497244551</v>
       </c>
       <c r="H56" t="n">
-        <v>3.428073136596684</v>
+        <v>3.348978430895361</v>
       </c>
       <c r="I56" t="n">
         <v>490</v>
@@ -3525,7 +3525,7 @@
         <v>0</v>
       </c>
       <c r="L56" t="n">
-        <v>74.90000000000001</v>
+        <v>74.89</v>
       </c>
       <c r="M56" t="n">
         <v>0</v>
@@ -3547,28 +3547,28 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="B57" t="n">
-        <v>12.55</v>
+        <v>12.64</v>
       </c>
       <c r="C57" t="n">
-        <v>2.42900619526015</v>
+        <v>2.428356076867948</v>
       </c>
       <c r="D57" t="n">
         <v>2.43</v>
       </c>
       <c r="E57" t="n">
-        <v>22.63742132310549</v>
+        <v>22.63759945930896</v>
       </c>
       <c r="F57" t="n">
         <v>22.57</v>
       </c>
       <c r="G57" t="n">
-        <v>0.8007664882467123</v>
+        <v>0.8064943440563968</v>
       </c>
       <c r="H57" t="n">
-        <v>40.24181369668103</v>
+        <v>40.53394767234678</v>
       </c>
       <c r="I57" t="n">
         <v>490</v>
@@ -3580,7 +3580,7 @@
         <v>5</v>
       </c>
       <c r="L57" t="n">
-        <v>202.63</v>
+        <v>204.08</v>
       </c>
       <c r="M57" t="n">
         <v>0</v>
@@ -3602,40 +3602,40 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B58" t="n">
-        <v>34.48</v>
+        <v>34.56</v>
       </c>
       <c r="C58" t="n">
-        <v>4.046977572337068</v>
+        <v>4.04654882356829</v>
       </c>
       <c r="D58" t="n">
         <v>4.05</v>
       </c>
       <c r="E58" t="n">
-        <v>36.60694181425788</v>
+        <v>36.60658813878631</v>
       </c>
       <c r="F58" t="n">
         <v>36.55</v>
       </c>
       <c r="G58" t="n">
-        <v>1.725326174424668</v>
+        <v>1.729564334495355</v>
       </c>
       <c r="H58" t="n">
-        <v>90.37165482016212</v>
+        <v>90.59037230633631</v>
       </c>
       <c r="I58" t="n">
         <v>490</v>
       </c>
       <c r="J58" t="n">
-        <v>1.844319486125757</v>
+        <v>1.848783108292578</v>
       </c>
       <c r="K58" t="n">
         <v>10</v>
       </c>
       <c r="L58" t="n">
-        <v>649.74</v>
+        <v>651.22</v>
       </c>
       <c r="M58" t="n">
         <v>0</v>
@@ -3657,43 +3657,43 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B59" t="n">
-        <v>65.31999999999999</v>
+        <v>65.5</v>
       </c>
       <c r="C59" t="n">
-        <v>5.606680270978957</v>
+        <v>5.607023702776904</v>
       </c>
       <c r="D59" t="n">
         <v>5.61</v>
       </c>
       <c r="E59" t="n">
-        <v>50.17762278188614</v>
+        <v>50.17685495958609</v>
       </c>
       <c r="F59" t="n">
         <v>50.12</v>
       </c>
       <c r="G59" t="n">
-        <v>2.629831424628544</v>
+        <v>2.636956467824409</v>
       </c>
       <c r="H59" t="n">
-        <v>150.5212337919391</v>
+        <v>150.9311399154538</v>
       </c>
       <c r="I59" t="n">
         <v>490</v>
       </c>
       <c r="J59" t="n">
-        <v>3.071861914121206</v>
+        <v>3.080227345213342</v>
       </c>
       <c r="K59" t="n">
         <v>15</v>
       </c>
       <c r="L59" t="n">
-        <v>1571.89</v>
+        <v>1576.08</v>
       </c>
       <c r="M59" t="n">
-        <v>359.0348115759851</v>
+        <v>360.0537005946441</v>
       </c>
       <c r="N59" t="n">
         <v>0</v>
@@ -3712,43 +3712,43 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B60" t="n">
-        <v>99.55</v>
+        <v>99.3</v>
       </c>
       <c r="C60" t="n">
-        <v>6.967301933746864</v>
+        <v>6.967904727364588</v>
       </c>
       <c r="D60" t="n">
         <v>6.97</v>
       </c>
       <c r="E60" t="n">
-        <v>63.60696606421328</v>
+        <v>63.60530106174878</v>
       </c>
       <c r="F60" t="n">
-        <v>63.55</v>
+        <v>63.54</v>
       </c>
       <c r="G60" t="n">
-        <v>3.554771428130231</v>
+        <v>3.545752116113752</v>
       </c>
       <c r="H60" t="n">
-        <v>210.526406937939</v>
+        <v>209.9956531187839</v>
       </c>
       <c r="I60" t="n">
         <v>490</v>
       </c>
       <c r="J60" t="n">
-        <v>4.296457284447734</v>
+        <v>4.285625573852733</v>
       </c>
       <c r="K60" t="n">
         <v>20</v>
       </c>
       <c r="L60" t="n">
-        <v>2970.12</v>
+        <v>2962.47</v>
       </c>
       <c r="M60" t="n">
-        <v>1083.076980157236</v>
+        <v>1080.445982677989</v>
       </c>
       <c r="N60" t="n">
         <v>0</v>
@@ -3767,43 +3767,43 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="B61" t="n">
-        <v>130.61</v>
+        <v>131.82</v>
       </c>
       <c r="C61" t="n">
-        <v>8.110985419949143</v>
+        <v>8.11507745147131</v>
       </c>
       <c r="D61" t="n">
         <v>8.109999999999999</v>
       </c>
       <c r="E61" t="n">
-        <v>75.69146975036352</v>
+        <v>75.69092922904487</v>
       </c>
       <c r="F61" t="n">
         <v>75.63</v>
       </c>
       <c r="G61" t="n">
-        <v>4.334609984251663</v>
+        <v>4.373683388519304</v>
       </c>
       <c r="H61" t="n">
-        <v>260.1144894817916</v>
+        <v>262.470681107669</v>
       </c>
       <c r="I61" t="n">
         <v>490</v>
       </c>
       <c r="J61" t="n">
-        <v>5.308458969016155</v>
+        <v>5.356544512401408</v>
       </c>
       <c r="K61" t="n">
         <v>25</v>
       </c>
       <c r="L61" t="n">
-        <v>4596.04</v>
+        <v>4638.22</v>
       </c>
       <c r="M61" t="n">
-        <v>2047.370737727446</v>
+        <v>2067.336880092389</v>
       </c>
       <c r="N61" t="n">
         <v>0</v>
@@ -3825,10 +3825,10 @@
         <v>600</v>
       </c>
       <c r="B62" t="n">
-        <v>0.86</v>
+        <v>0.85</v>
       </c>
       <c r="C62" t="n">
-        <v>0.5133378440567634</v>
+        <v>0.5105550807903367</v>
       </c>
       <c r="D62" t="n">
         <v>0.5</v>
@@ -3840,10 +3840,10 @@
         <v>1</v>
       </c>
       <c r="G62" t="n">
-        <v>0.05502269431009107</v>
+        <v>0.05442776400487604</v>
       </c>
       <c r="H62" t="n">
-        <v>5.109148413159788</v>
+        <v>5.064768824583651</v>
       </c>
       <c r="I62" t="n">
         <v>490</v>
@@ -3877,40 +3877,40 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="B63" t="n">
-        <v>19.04</v>
+        <v>18.97</v>
       </c>
       <c r="C63" t="n">
-        <v>2.428048163663553</v>
+        <v>2.4277550253622</v>
       </c>
       <c r="D63" t="n">
         <v>2.43</v>
       </c>
       <c r="E63" t="n">
-        <v>22.63438892172621</v>
+        <v>22.63448889347154</v>
       </c>
       <c r="F63" t="n">
         <v>22.56</v>
       </c>
       <c r="G63" t="n">
-        <v>1.214563817599578</v>
+        <v>1.2101683012488</v>
       </c>
       <c r="H63" t="n">
-        <v>61.04634530500817</v>
+        <v>60.82831899258679</v>
       </c>
       <c r="I63" t="n">
         <v>490</v>
       </c>
       <c r="J63" t="n">
-        <v>1.245843781734861</v>
+        <v>1.241394265154832</v>
       </c>
       <c r="K63" t="n">
         <v>5</v>
       </c>
       <c r="L63" t="n">
-        <v>307.34</v>
+        <v>306.23</v>
       </c>
       <c r="M63" t="n">
         <v>0</v>
@@ -3932,40 +3932,40 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>585</v>
+        <v>579</v>
       </c>
       <c r="B64" t="n">
-        <v>51.95</v>
+        <v>51.4</v>
       </c>
       <c r="C64" t="n">
-        <v>4.034949991350134</v>
+        <v>4.034400531772845</v>
       </c>
       <c r="D64" t="n">
         <v>4.03</v>
       </c>
       <c r="E64" t="n">
-        <v>36.56806409147721</v>
+        <v>36.56853395712984</v>
       </c>
       <c r="F64" t="n">
         <v>36.51</v>
       </c>
       <c r="G64" t="n">
-        <v>2.605018090640567</v>
+        <v>2.577857887330508</v>
       </c>
       <c r="H64" t="n">
-        <v>136.3094945113286</v>
+        <v>134.8819632501449</v>
       </c>
       <c r="I64" t="n">
         <v>490</v>
       </c>
       <c r="J64" t="n">
-        <v>2.781826418598543</v>
+        <v>2.752693127553977</v>
       </c>
       <c r="K64" t="n">
         <v>10</v>
       </c>
       <c r="L64" t="n">
-        <v>978.46</v>
+        <v>968.14</v>
       </c>
       <c r="M64" t="n">
         <v>0</v>
@@ -3987,43 +3987,43 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>579</v>
+        <v>571</v>
       </c>
       <c r="B65" t="n">
-        <v>94.19</v>
+        <v>92.95999999999999</v>
       </c>
       <c r="C65" t="n">
-        <v>5.461346472341004</v>
+        <v>5.463403107745207</v>
       </c>
       <c r="D65" t="n">
         <v>5.46</v>
       </c>
       <c r="E65" t="n">
-        <v>50.05064166117442</v>
+        <v>50.05386790403427</v>
       </c>
       <c r="F65" t="n">
         <v>49.99</v>
       </c>
       <c r="G65" t="n">
-        <v>3.852262248177698</v>
+        <v>3.801038356320761</v>
       </c>
       <c r="H65" t="n">
-        <v>219.3030286285111</v>
+        <v>216.4036676765207</v>
       </c>
       <c r="I65" t="n">
         <v>490</v>
       </c>
       <c r="J65" t="n">
-        <v>4.475572012826758</v>
+        <v>4.416401381153484</v>
       </c>
       <c r="K65" t="n">
         <v>15</v>
       </c>
       <c r="L65" t="n">
-        <v>2266.37</v>
+        <v>2236.69</v>
       </c>
       <c r="M65" t="n">
-        <v>478.7927489249905</v>
+        <v>473.0688796453624</v>
       </c>
       <c r="N65" t="n">
         <v>0</v>
@@ -4042,43 +4042,43 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>572</v>
+        <v>553</v>
       </c>
       <c r="B66" t="n">
-        <v>136.94</v>
+        <v>132.69</v>
       </c>
       <c r="C66" t="n">
-        <v>6.625367266386633</v>
+        <v>6.632737534381634</v>
       </c>
       <c r="D66" t="n">
-        <v>6.62</v>
+        <v>6.63</v>
       </c>
       <c r="E66" t="n">
-        <v>63.33532375440753</v>
+        <v>63.3447167512938</v>
       </c>
       <c r="F66" t="n">
-        <v>63.27</v>
+        <v>63.28</v>
       </c>
       <c r="G66" t="n">
-        <v>5.018946398064185</v>
+        <v>4.860219268552568</v>
       </c>
       <c r="H66" t="n">
-        <v>295.4187191739449</v>
+        <v>286.1159669589165</v>
       </c>
       <c r="I66" t="n">
         <v>490</v>
       </c>
       <c r="J66" t="n">
-        <v>6.028953452529486</v>
+        <v>5.8391013665085</v>
       </c>
       <c r="K66" t="n">
         <v>20</v>
       </c>
       <c r="L66" t="n">
-        <v>4078.59</v>
+        <v>3952.07</v>
       </c>
       <c r="M66" t="n">
-        <v>1374.276065119674</v>
+        <v>1334.085797032848</v>
       </c>
       <c r="N66" t="n">
         <v>0</v>
@@ -4097,43 +4097,43 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>566</v>
+        <v>544</v>
       </c>
       <c r="B67" t="n">
-        <v>176.23</v>
+        <v>170.51</v>
       </c>
       <c r="C67" t="n">
-        <v>7.555627166716271</v>
+        <v>7.580765107720373</v>
       </c>
       <c r="D67" t="n">
-        <v>7.55</v>
+        <v>7.57</v>
       </c>
       <c r="E67" t="n">
-        <v>75.32390685554836</v>
+        <v>75.33397142951947</v>
       </c>
       <c r="F67" t="n">
         <v>75.26000000000001</v>
       </c>
       <c r="G67" t="n">
-        <v>6.044435816451847</v>
+        <v>5.839038963021745</v>
       </c>
       <c r="H67" t="n">
-        <v>360.9446549402417</v>
+        <v>348.7693637420123</v>
       </c>
       <c r="I67" t="n">
         <v>490</v>
       </c>
       <c r="J67" t="n">
-        <v>7.366217447760034</v>
+        <v>7.117742117183925</v>
       </c>
       <c r="K67" t="n">
         <v>25</v>
       </c>
       <c r="L67" t="n">
-        <v>6185.18</v>
+        <v>5984.27</v>
       </c>
       <c r="M67" t="n">
-        <v>2544.3596478283</v>
+        <v>2471.46837697855</v>
       </c>
       <c r="N67" t="n">
         <v>0</v>
@@ -4155,10 +4155,10 @@
         <v>800</v>
       </c>
       <c r="B68" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="C68" t="n">
-        <v>0.5082739711904131</v>
+        <v>0.5059813427392061</v>
       </c>
       <c r="D68" t="n">
         <v>0.5</v>
@@ -4170,10 +4170,10 @@
         <v>1</v>
       </c>
       <c r="G68" t="n">
-        <v>0.07192332635695436</v>
+        <v>0.07127595274300247</v>
       </c>
       <c r="H68" t="n">
-        <v>6.704664771116978</v>
+        <v>6.656192365114959</v>
       </c>
       <c r="I68" t="n">
         <v>490</v>
@@ -4207,40 +4207,40 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>786</v>
+        <v>780</v>
       </c>
       <c r="B69" t="n">
-        <v>25.27</v>
+        <v>25.07</v>
       </c>
       <c r="C69" t="n">
-        <v>2.427688103939908</v>
+        <v>2.427697581801716</v>
       </c>
       <c r="D69" t="n">
         <v>2.43</v>
       </c>
       <c r="E69" t="n">
-        <v>22.63154894926541</v>
+        <v>22.63165773355409</v>
       </c>
       <c r="F69" t="n">
         <v>22.56</v>
       </c>
       <c r="G69" t="n">
-        <v>1.612101433890613</v>
+        <v>1.599807807521596</v>
       </c>
       <c r="H69" t="n">
-        <v>81.03210760355341</v>
+        <v>80.41404577097376</v>
       </c>
       <c r="I69" t="n">
         <v>490</v>
       </c>
       <c r="J69" t="n">
-        <v>1.653716481705172</v>
+        <v>1.641102974917832</v>
       </c>
       <c r="K69" t="n">
         <v>5</v>
       </c>
       <c r="L69" t="n">
-        <v>407.94</v>
+        <v>404.83</v>
       </c>
       <c r="M69" t="n">
         <v>0</v>
@@ -4262,40 +4262,40 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>773</v>
+        <v>763</v>
       </c>
       <c r="B70" t="n">
-        <v>68.23999999999999</v>
+        <v>67.38</v>
       </c>
       <c r="C70" t="n">
-        <v>4.02326215887638</v>
+        <v>4.023851535280781</v>
       </c>
       <c r="D70" t="n">
         <v>4.02</v>
       </c>
       <c r="E70" t="n">
-        <v>36.53076869711664</v>
+        <v>36.53193974398829</v>
       </c>
       <c r="F70" t="n">
         <v>36.47</v>
       </c>
       <c r="G70" t="n">
-        <v>3.429637500071342</v>
+        <v>3.385892642275349</v>
       </c>
       <c r="H70" t="n">
-        <v>179.2782967588457</v>
+        <v>177.0006516853051</v>
       </c>
       <c r="I70" t="n">
         <v>490</v>
       </c>
       <c r="J70" t="n">
-        <v>3.658740750180525</v>
+        <v>3.612258197659288</v>
       </c>
       <c r="K70" t="n">
         <v>10</v>
       </c>
       <c r="L70" t="n">
-        <v>1285.12</v>
+        <v>1268.83</v>
       </c>
       <c r="M70" t="n">
         <v>0</v>
@@ -4317,43 +4317,43 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>760</v>
+        <v>748</v>
       </c>
       <c r="B71" t="n">
-        <v>117.99</v>
+        <v>116.37</v>
       </c>
       <c r="C71" t="n">
-        <v>5.335232470163819</v>
+        <v>5.340884184889665</v>
       </c>
       <c r="D71" t="n">
-        <v>5.33</v>
+        <v>5.34</v>
       </c>
       <c r="E71" t="n">
-        <v>49.93112294577289</v>
+        <v>49.93664897401337</v>
       </c>
       <c r="F71" t="n">
-        <v>49.87</v>
+        <v>49.88</v>
       </c>
       <c r="G71" t="n">
-        <v>4.89499056924506</v>
+        <v>4.824767853377601</v>
       </c>
       <c r="H71" t="n">
-        <v>277.2647857028626</v>
+        <v>273.3510337021356</v>
       </c>
       <c r="I71" t="n">
         <v>490</v>
       </c>
       <c r="J71" t="n">
-        <v>5.658465014344134</v>
+        <v>5.578592524533379</v>
       </c>
       <c r="K71" t="n">
         <v>15</v>
       </c>
       <c r="L71" t="n">
-        <v>2839.14</v>
+        <v>2800.18</v>
       </c>
       <c r="M71" t="n">
-        <v>555.7178881662023</v>
+        <v>550.0806535983008</v>
       </c>
       <c r="N71" t="n">
         <v>0</v>
@@ -4372,43 +4372,43 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>740</v>
+        <v>736</v>
       </c>
       <c r="B72" t="n">
-        <v>163.26</v>
+        <v>163.02</v>
       </c>
       <c r="C72" t="n">
-        <v>6.360038943922906</v>
+        <v>6.372548215035012</v>
       </c>
       <c r="D72" t="n">
-        <v>6.36</v>
+        <v>6.37</v>
       </c>
       <c r="E72" t="n">
-        <v>63.0963734494301</v>
+        <v>63.11001000572385</v>
       </c>
       <c r="F72" t="n">
-        <v>63.03</v>
+        <v>63.04</v>
       </c>
       <c r="G72" t="n">
-        <v>6.115529930062931</v>
+        <v>6.099909006949217</v>
       </c>
       <c r="H72" t="n">
-        <v>357.9189218214817</v>
+        <v>357.1086649040631</v>
       </c>
       <c r="I72" t="n">
         <v>490</v>
       </c>
       <c r="J72" t="n">
-        <v>7.304467792275137</v>
+        <v>7.287931936817613</v>
       </c>
       <c r="K72" t="n">
         <v>20</v>
       </c>
       <c r="L72" t="n">
-        <v>4855.39</v>
+        <v>4848.53</v>
       </c>
       <c r="M72" t="n">
-        <v>1522.36953131583</v>
+        <v>1525.787469454112</v>
       </c>
       <c r="N72" t="n">
         <v>0</v>
@@ -4427,43 +4427,43 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>715</v>
+        <v>726</v>
       </c>
       <c r="B73" t="n">
-        <v>200.13</v>
+        <v>203.89</v>
       </c>
       <c r="C73" t="n">
-        <v>7.163816404736972</v>
+        <v>7.175760312857133</v>
       </c>
       <c r="D73" t="n">
-        <v>7.15</v>
+        <v>7.17</v>
       </c>
       <c r="E73" t="n">
-        <v>75.08031688768547</v>
+        <v>75.09401953636078</v>
       </c>
       <c r="F73" t="n">
-        <v>75.01000000000001</v>
+        <v>75.02</v>
       </c>
       <c r="G73" t="n">
-        <v>7.044245330617935</v>
+        <v>7.170596429487835</v>
       </c>
       <c r="H73" t="n">
-        <v>418.6131622189181</v>
+        <v>426.1913573006793</v>
       </c>
       <c r="I73" t="n">
         <v>490</v>
       </c>
       <c r="J73" t="n">
-        <v>8.543125759569758</v>
+        <v>8.697782802054679</v>
       </c>
       <c r="K73" t="n">
         <v>25</v>
       </c>
       <c r="L73" t="n">
-        <v>7015.2</v>
+        <v>7147.65</v>
       </c>
       <c r="M73" t="n">
-        <v>2695.85713820232</v>
+        <v>2752.928003364746</v>
       </c>
       <c r="N73" t="n">
         <v>0</v>
@@ -4485,13 +4485,13 @@
         <v>400</v>
       </c>
       <c r="B74" t="n">
-        <v>0.57</v>
+        <v>0.55</v>
       </c>
       <c r="C74" t="n">
-        <v>0.5094205946308598</v>
+        <v>0.5025798958994734</v>
       </c>
       <c r="D74" t="n">
-        <v>0.5</v>
+        <v>0.49</v>
       </c>
       <c r="E74" t="n">
         <v>1</v>
@@ -4500,10 +4500,10 @@
         <v>1</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03612409918373564</v>
+        <v>0.03516043611297207</v>
       </c>
       <c r="H74" t="n">
-        <v>3.364478608133556</v>
+        <v>3.292260535788664</v>
       </c>
       <c r="I74" t="n">
         <v>490</v>
@@ -4515,7 +4515,7 @@
         <v>0</v>
       </c>
       <c r="L74" t="n">
-        <v>74.89</v>
+        <v>74.88</v>
       </c>
       <c r="M74" t="n">
         <v>0</v>
@@ -4537,28 +4537,28 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B75" t="n">
-        <v>14.42</v>
+        <v>14.45</v>
       </c>
       <c r="C75" t="n">
-        <v>2.593377360551603</v>
+        <v>2.593322895340278</v>
       </c>
       <c r="D75" t="n">
         <v>2.59</v>
       </c>
       <c r="E75" t="n">
-        <v>24.18691272243571</v>
+        <v>24.18708625098965</v>
       </c>
       <c r="F75" t="n">
         <v>24.11</v>
       </c>
       <c r="G75" t="n">
-        <v>0.9198309506116306</v>
+        <v>0.922132753537279</v>
       </c>
       <c r="H75" t="n">
-        <v>45.04504481844339</v>
+        <v>45.15814103650796</v>
       </c>
       <c r="I75" t="n">
         <v>490</v>
@@ -4570,7 +4570,7 @@
         <v>5</v>
       </c>
       <c r="L75" t="n">
-        <v>232.67</v>
+        <v>233.25</v>
       </c>
       <c r="M75" t="n">
         <v>0</v>
@@ -4592,40 +4592,40 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="B76" t="n">
-        <v>37.73</v>
+        <v>37.24</v>
       </c>
       <c r="C76" t="n">
-        <v>4.228035982178956</v>
+        <v>4.227670281018405</v>
       </c>
       <c r="D76" t="n">
         <v>4.23</v>
       </c>
       <c r="E76" t="n">
-        <v>38.90209966214489</v>
+        <v>38.9020431170023</v>
       </c>
       <c r="F76" t="n">
         <v>38.84</v>
       </c>
       <c r="G76" t="n">
-        <v>1.828633945415633</v>
+        <v>1.804808479970713</v>
       </c>
       <c r="H76" t="n">
-        <v>97.19938965138191</v>
+        <v>95.9302647168151</v>
       </c>
       <c r="I76" t="n">
         <v>490</v>
       </c>
       <c r="J76" t="n">
-        <v>1.983661013293508</v>
+        <v>1.957760504424798</v>
       </c>
       <c r="K76" t="n">
         <v>10</v>
       </c>
       <c r="L76" t="n">
-        <v>743.9299999999999</v>
+        <v>734.1900000000001</v>
       </c>
       <c r="M76" t="n">
         <v>0</v>
@@ -4647,43 +4647,43 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="B77" t="n">
-        <v>70.25</v>
+        <v>68.84999999999999</v>
       </c>
       <c r="C77" t="n">
-        <v>5.799259599424031</v>
+        <v>5.802041898473547</v>
       </c>
       <c r="D77" t="n">
         <v>5.8</v>
       </c>
       <c r="E77" t="n">
-        <v>53.4248411079769</v>
+        <v>53.42744886301264</v>
       </c>
       <c r="F77" t="n">
         <v>53.36</v>
       </c>
       <c r="G77" t="n">
-        <v>2.772652023491387</v>
+        <v>2.716588648302501</v>
       </c>
       <c r="H77" t="n">
-        <v>159.7392778678678</v>
+        <v>156.5231390714521</v>
       </c>
       <c r="I77" t="n">
         <v>490</v>
       </c>
       <c r="J77" t="n">
-        <v>3.259985262609546</v>
+        <v>3.19434977696841</v>
       </c>
       <c r="K77" t="n">
         <v>15</v>
       </c>
       <c r="L77" t="n">
-        <v>1789.81</v>
+        <v>1754.1</v>
       </c>
       <c r="M77" t="n">
-        <v>451.1298226912</v>
+        <v>442.6543079725708</v>
       </c>
       <c r="N77" t="n">
         <v>0</v>
@@ -4702,43 +4702,43 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>380</v>
+        <v>368</v>
       </c>
       <c r="B78" t="n">
-        <v>106.13</v>
+        <v>103.1</v>
       </c>
       <c r="C78" t="n">
-        <v>7.155742219580699</v>
+        <v>7.167024889025558</v>
       </c>
       <c r="D78" t="n">
-        <v>7.15</v>
+        <v>7.17</v>
       </c>
       <c r="E78" t="n">
-        <v>67.78727423642192</v>
+        <v>67.79739016362232</v>
       </c>
       <c r="F78" t="n">
-        <v>67.72</v>
+        <v>67.73</v>
       </c>
       <c r="G78" t="n">
-        <v>3.738855386198622</v>
+        <v>3.629378207971285</v>
       </c>
       <c r="H78" t="n">
-        <v>222.0774025876258</v>
+        <v>215.608944480403</v>
       </c>
       <c r="I78" t="n">
         <v>490</v>
       </c>
       <c r="J78" t="n">
-        <v>4.532191889543384</v>
+        <v>4.400182540416388</v>
       </c>
       <c r="K78" t="n">
         <v>20</v>
       </c>
       <c r="L78" t="n">
-        <v>3365.24</v>
+        <v>3269.47</v>
       </c>
       <c r="M78" t="n">
-        <v>1280.80457783885</v>
+        <v>1247.042582984951</v>
       </c>
       <c r="N78" t="n">
         <v>0</v>
@@ -4757,43 +4757,43 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>374</v>
+        <v>361</v>
       </c>
       <c r="B79" t="n">
-        <v>139.93</v>
+        <v>136.04</v>
       </c>
       <c r="C79" t="n">
-        <v>8.282371345349899</v>
+        <v>8.312272241561796</v>
       </c>
       <c r="D79" t="n">
-        <v>8.279999999999999</v>
+        <v>8.31</v>
       </c>
       <c r="E79" t="n">
-        <v>80.71029372008387</v>
+        <v>80.73514425991785</v>
       </c>
       <c r="F79" t="n">
-        <v>80.64</v>
+        <v>80.66</v>
       </c>
       <c r="G79" t="n">
-        <v>4.600290956639616</v>
+        <v>4.465369047888629</v>
       </c>
       <c r="H79" t="n">
-        <v>276.3820878400717</v>
+        <v>268.3226995235163</v>
       </c>
       <c r="I79" t="n">
         <v>490</v>
       </c>
       <c r="J79" t="n">
-        <v>5.640450772246361</v>
+        <v>5.475973459663599</v>
       </c>
       <c r="K79" t="n">
         <v>25</v>
       </c>
       <c r="L79" t="n">
-        <v>5242.15</v>
+        <v>5097.53</v>
       </c>
       <c r="M79" t="n">
-        <v>2393.270918396431</v>
+        <v>2335.584417885399</v>
       </c>
       <c r="N79" t="n">
         <v>0</v>
@@ -4818,7 +4818,7 @@
         <v>0.85</v>
       </c>
       <c r="C80" t="n">
-        <v>0.5100223575982321</v>
+        <v>0.5101561903210348</v>
       </c>
       <c r="D80" t="n">
         <v>0.5</v>
@@ -4830,10 +4830,10 @@
         <v>1</v>
       </c>
       <c r="G80" t="n">
-        <v>0.05431424126725388</v>
+        <v>0.05434274972929903</v>
       </c>
       <c r="H80" t="n">
-        <v>5.056289592019777</v>
+        <v>5.058419272970567</v>
       </c>
       <c r="I80" t="n">
         <v>490</v>
@@ -4867,40 +4867,40 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="B81" t="n">
-        <v>21.63</v>
+        <v>21.56</v>
       </c>
       <c r="C81" t="n">
-        <v>2.592459765551795</v>
+        <v>2.592677157307687</v>
       </c>
       <c r="D81" t="n">
         <v>2.59</v>
       </c>
       <c r="E81" t="n">
-        <v>24.18363719061605</v>
+        <v>24.18363205704567</v>
       </c>
       <c r="F81" t="n">
-        <v>24.1</v>
+        <v>24.11</v>
       </c>
       <c r="G81" t="n">
-        <v>1.37993966866399</v>
+        <v>1.375492563025987</v>
       </c>
       <c r="H81" t="n">
-        <v>67.58647740589103</v>
+        <v>67.3664364212124</v>
       </c>
       <c r="I81" t="n">
         <v>490</v>
       </c>
       <c r="J81" t="n">
-        <v>1.379315865426348</v>
+        <v>1.374825233085967</v>
       </c>
       <c r="K81" t="n">
         <v>5</v>
       </c>
       <c r="L81" t="n">
-        <v>349.05</v>
+        <v>347.93</v>
       </c>
       <c r="M81" t="n">
         <v>0</v>
@@ -4922,40 +4922,40 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B82" t="n">
-        <v>55.98</v>
+        <v>55.9</v>
       </c>
       <c r="C82" t="n">
-        <v>4.213979229117082</v>
+        <v>4.214618486065059</v>
       </c>
       <c r="D82" t="n">
         <v>4.21</v>
       </c>
       <c r="E82" t="n">
-        <v>38.85803114251723</v>
+        <v>38.85842532318694</v>
       </c>
       <c r="F82" t="n">
         <v>38.79</v>
       </c>
       <c r="G82" t="n">
-        <v>2.719513235938475</v>
+        <v>2.715334398027836</v>
       </c>
       <c r="H82" t="n">
-        <v>144.3973175137003</v>
+        <v>144.1825933882806</v>
       </c>
       <c r="I82" t="n">
         <v>490</v>
       </c>
       <c r="J82" t="n">
-        <v>2.946884030891843</v>
+        <v>2.942501905883277</v>
       </c>
       <c r="K82" t="n">
         <v>10</v>
       </c>
       <c r="L82" t="n">
-        <v>1103.19</v>
+        <v>1101.65</v>
       </c>
       <c r="M82" t="n">
         <v>0</v>
@@ -4977,43 +4977,43 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>564</v>
+        <v>568</v>
       </c>
       <c r="B83" t="n">
-        <v>97.98</v>
+        <v>98.78</v>
       </c>
       <c r="C83" t="n">
-        <v>5.643792005918771</v>
+        <v>5.646597925660334</v>
       </c>
       <c r="D83" t="n">
-        <v>5.64</v>
+        <v>5.65</v>
       </c>
       <c r="E83" t="n">
-        <v>53.28228870303839</v>
+        <v>53.28311545573602</v>
       </c>
       <c r="F83" t="n">
         <v>53.21</v>
       </c>
       <c r="G83" t="n">
-        <v>3.929077663722421</v>
+        <v>3.959710320784424</v>
       </c>
       <c r="H83" t="n">
-        <v>225.1907560868592</v>
+        <v>226.968847731093</v>
       </c>
       <c r="I83" t="n">
         <v>490</v>
       </c>
       <c r="J83" t="n">
-        <v>4.595729716058351</v>
+        <v>4.632017300634551</v>
       </c>
       <c r="K83" t="n">
         <v>15</v>
       </c>
       <c r="L83" t="n">
-        <v>2495.19</v>
+        <v>2515.45</v>
       </c>
       <c r="M83" t="n">
-        <v>585.7129391213803</v>
+        <v>591.279640617528</v>
       </c>
       <c r="N83" t="n">
         <v>0</v>
@@ -5032,43 +5032,43 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>551</v>
+        <v>561</v>
       </c>
       <c r="B84" t="n">
-        <v>139.46</v>
+        <v>141.94</v>
       </c>
       <c r="C84" t="n">
-        <v>6.812117976743743</v>
+        <v>6.811029280298139</v>
       </c>
       <c r="D84" t="n">
         <v>6.81</v>
       </c>
       <c r="E84" t="n">
-        <v>67.49593158088136</v>
+        <v>67.49251496975123</v>
       </c>
       <c r="F84" t="n">
         <v>67.42</v>
       </c>
       <c r="G84" t="n">
-        <v>5.037198595519324</v>
+        <v>5.127389473636017</v>
       </c>
       <c r="H84" t="n">
-        <v>297.5565172461326</v>
+        <v>302.879110145143</v>
       </c>
       <c r="I84" t="n">
         <v>490</v>
       </c>
       <c r="J84" t="n">
-        <v>6.072581984614951</v>
+        <v>6.181206329492715</v>
       </c>
       <c r="K84" t="n">
         <v>20</v>
       </c>
       <c r="L84" t="n">
-        <v>4412.94</v>
+        <v>4491.57</v>
       </c>
       <c r="M84" t="n">
-        <v>1563.005958669676</v>
+        <v>1590.480000181502</v>
       </c>
       <c r="N84" t="n">
         <v>0</v>
@@ -5087,43 +5087,43 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>542</v>
+        <v>554</v>
       </c>
       <c r="B85" t="n">
-        <v>177.5</v>
+        <v>180.9</v>
       </c>
       <c r="C85" t="n">
-        <v>7.7487274998659</v>
+        <v>7.737454835592246</v>
       </c>
       <c r="D85" t="n">
-        <v>7.74</v>
+        <v>7.73</v>
       </c>
       <c r="E85" t="n">
-        <v>80.34780127122144</v>
+        <v>80.34397557978269</v>
       </c>
       <c r="F85" t="n">
         <v>80.27</v>
       </c>
       <c r="G85" t="n">
-        <v>6.015166288245235</v>
+        <v>6.134622957065542</v>
       </c>
       <c r="H85" t="n">
-        <v>359.9266959931622</v>
+        <v>367.0369256920854</v>
       </c>
       <c r="I85" t="n">
         <v>490</v>
       </c>
       <c r="J85" t="n">
-        <v>7.345442775370657</v>
+        <v>7.49054950392011</v>
       </c>
       <c r="K85" t="n">
         <v>25</v>
       </c>
       <c r="L85" t="n">
-        <v>6632.18</v>
+        <v>6759.53</v>
       </c>
       <c r="M85" t="n">
-        <v>2820.523832775247</v>
+        <v>2869.955569228096</v>
       </c>
       <c r="N85" t="n">
         <v>0</v>
@@ -5145,10 +5145,10 @@
         <v>800</v>
       </c>
       <c r="B86" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="C86" t="n">
-        <v>0.5107806985422357</v>
+        <v>0.5125987709981427</v>
       </c>
       <c r="D86" t="n">
         <v>0.5</v>
@@ -5160,10 +5160,10 @@
         <v>1</v>
       </c>
       <c r="G86" t="n">
-        <v>0.0726345048393516</v>
+        <v>0.07315249547933443</v>
       </c>
       <c r="H86" t="n">
-        <v>6.757815392836995</v>
+        <v>6.796463231596679</v>
       </c>
       <c r="I86" t="n">
         <v>490</v>
@@ -5197,40 +5197,40 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>791</v>
+        <v>786</v>
       </c>
       <c r="B87" t="n">
-        <v>28.99</v>
+        <v>28.81</v>
       </c>
       <c r="C87" t="n">
-        <v>2.59241709536421</v>
+        <v>2.59258351239537</v>
       </c>
       <c r="D87" t="n">
         <v>2.59</v>
       </c>
       <c r="E87" t="n">
-        <v>24.18033822758435</v>
+        <v>24.18024495207195</v>
       </c>
       <c r="F87" t="n">
-        <v>24.1</v>
+        <v>24.11</v>
       </c>
       <c r="G87" t="n">
-        <v>1.84999380745424</v>
+        <v>1.838535810812997</v>
       </c>
       <c r="H87" t="n">
-        <v>90.60930736469948</v>
+        <v>90.04583247470046</v>
       </c>
       <c r="I87" t="n">
         <v>490</v>
       </c>
       <c r="J87" t="n">
-        <v>1.849169538055091</v>
+        <v>1.837670050504091</v>
       </c>
       <c r="K87" t="n">
         <v>5</v>
       </c>
       <c r="L87" t="n">
-        <v>467.95</v>
+        <v>465.05</v>
       </c>
       <c r="M87" t="n">
         <v>0</v>
@@ -5252,40 +5252,40 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>772</v>
+        <v>767</v>
       </c>
       <c r="B88" t="n">
-        <v>73.61</v>
+        <v>73.19</v>
       </c>
       <c r="C88" t="n">
-        <v>4.181225944121315</v>
+        <v>4.182895082905866</v>
       </c>
       <c r="D88" t="n">
         <v>4.18</v>
       </c>
       <c r="E88" t="n">
-        <v>38.81304349710067</v>
+        <v>38.8139899333966</v>
       </c>
       <c r="F88" t="n">
         <v>38.75</v>
       </c>
       <c r="G88" t="n">
-        <v>3.596271150780304</v>
+        <v>3.574795254431875</v>
       </c>
       <c r="H88" t="n">
-        <v>190.4625685660097</v>
+        <v>189.3502589168802</v>
       </c>
       <c r="I88" t="n">
         <v>490</v>
       </c>
       <c r="J88" t="n">
-        <v>3.886991195224687</v>
+        <v>3.864290998303678</v>
       </c>
       <c r="K88" t="n">
         <v>10</v>
       </c>
       <c r="L88" t="n">
-        <v>1451.46</v>
+        <v>1443.16</v>
       </c>
       <c r="M88" t="n">
         <v>0</v>
@@ -5307,43 +5307,43 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="B89" t="n">
-        <v>123.88</v>
+        <v>123.81</v>
       </c>
       <c r="C89" t="n">
-        <v>5.484741674538016</v>
+        <v>5.490516890776978</v>
       </c>
       <c r="D89" t="n">
-        <v>5.48</v>
+        <v>5.49</v>
       </c>
       <c r="E89" t="n">
-        <v>53.14206624934989</v>
+        <v>53.14527575025819</v>
       </c>
       <c r="F89" t="n">
-        <v>53.07</v>
+        <v>53.08</v>
       </c>
       <c r="G89" t="n">
-        <v>5.05301609127896</v>
+        <v>5.047015426232663</v>
       </c>
       <c r="H89" t="n">
-        <v>287.9337786414001</v>
+        <v>287.6565142276439</v>
       </c>
       <c r="I89" t="n">
         <v>490</v>
       </c>
       <c r="J89" t="n">
-        <v>5.876199564110207</v>
+        <v>5.87054110668661</v>
       </c>
       <c r="K89" t="n">
         <v>15</v>
       </c>
       <c r="L89" t="n">
-        <v>3154.61</v>
+        <v>3152.83</v>
       </c>
       <c r="M89" t="n">
-        <v>681.8217637280969</v>
+        <v>683.6439271021072</v>
       </c>
       <c r="N89" t="n">
         <v>0</v>
@@ -5362,43 +5362,43 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="B90" t="n">
-        <v>169.78</v>
+        <v>169.85</v>
       </c>
       <c r="C90" t="n">
-        <v>6.49891518588116</v>
+        <v>6.504741271265924</v>
       </c>
       <c r="D90" t="n">
-        <v>6.49</v>
+        <v>6.5</v>
       </c>
       <c r="E90" t="n">
-        <v>67.23654056619186</v>
+        <v>67.23977991613815</v>
       </c>
       <c r="F90" t="n">
-        <v>67.16</v>
+        <v>67.17</v>
       </c>
       <c r="G90" t="n">
-        <v>6.285729554384252</v>
+        <v>6.285359703936007</v>
       </c>
       <c r="H90" t="n">
-        <v>369.0430942717099</v>
+        <v>369.0727728225139</v>
       </c>
       <c r="I90" t="n">
         <v>490</v>
       </c>
       <c r="J90" t="n">
-        <v>7.531491719830815</v>
+        <v>7.5320974045411</v>
       </c>
       <c r="K90" t="n">
         <v>20</v>
       </c>
       <c r="L90" t="n">
-        <v>5364.7</v>
+        <v>5367.05</v>
       </c>
       <c r="M90" t="n">
-        <v>1758.662602930302</v>
+        <v>1762.294955565692</v>
       </c>
       <c r="N90" t="n">
         <v>0</v>
@@ -5420,40 +5420,40 @@
         <v>720</v>
       </c>
       <c r="B91" t="n">
-        <v>208.64</v>
+        <v>209.15</v>
       </c>
       <c r="C91" t="n">
-        <v>7.289029758224427</v>
+        <v>7.297991239232475</v>
       </c>
       <c r="D91" t="n">
-        <v>7.28</v>
+        <v>7.29</v>
       </c>
       <c r="E91" t="n">
-        <v>80.08274727330532</v>
+        <v>80.0859883007886</v>
       </c>
       <c r="F91" t="n">
-        <v>80</v>
+        <v>80.01000000000001</v>
       </c>
       <c r="G91" t="n">
-        <v>7.280767495174475</v>
+        <v>7.294076911529261</v>
       </c>
       <c r="H91" t="n">
-        <v>433.4284375628494</v>
+        <v>434.2840241466373</v>
       </c>
       <c r="I91" t="n">
         <v>490</v>
       </c>
       <c r="J91" t="n">
-        <v>8.845478317609171</v>
+        <v>8.862939268298719</v>
       </c>
       <c r="K91" t="n">
         <v>25</v>
       </c>
       <c r="L91" t="n">
-        <v>7786.27</v>
+        <v>7805.43</v>
       </c>
       <c r="M91" t="n">
-        <v>3073.962851884822</v>
+        <v>3086.75480250022</v>
       </c>
       <c r="N91" t="n">
         <v>0</v>
@@ -5475,13 +5475,13 @@
         <v>400</v>
       </c>
       <c r="B92" t="n">
-        <v>0.58</v>
+        <v>0.57</v>
       </c>
       <c r="C92" t="n">
-        <v>0.5144646366530035</v>
+        <v>0.510773391261352</v>
       </c>
       <c r="D92" t="n">
-        <v>0.51</v>
+        <v>0.5</v>
       </c>
       <c r="E92" t="n">
         <v>1</v>
@@ -5490,10 +5490,10 @@
         <v>1</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03684300832162977</v>
+        <v>0.03631621331045794</v>
       </c>
       <c r="H92" t="n">
-        <v>3.418106679733896</v>
+        <v>3.378830112661039</v>
       </c>
       <c r="I92" t="n">
         <v>490</v>
@@ -5505,7 +5505,7 @@
         <v>0</v>
       </c>
       <c r="L92" t="n">
-        <v>74.90000000000001</v>
+        <v>74.89</v>
       </c>
       <c r="M92" t="n">
         <v>0</v>
@@ -5527,40 +5527,40 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="B93" t="n">
-        <v>16.09</v>
+        <v>16.35</v>
       </c>
       <c r="C93" t="n">
-        <v>2.757731150246419</v>
+        <v>2.758132243121028</v>
       </c>
       <c r="D93" t="n">
         <v>2.76</v>
       </c>
       <c r="E93" t="n">
-        <v>25.73178590732139</v>
+        <v>25.73188708911193</v>
       </c>
       <c r="F93" t="n">
-        <v>25.65</v>
+        <v>25.66</v>
       </c>
       <c r="G93" t="n">
-        <v>1.02687980494345</v>
+        <v>1.0430627358603</v>
       </c>
       <c r="H93" t="n">
-        <v>49.08147038225613</v>
+        <v>49.85209726834766</v>
       </c>
       <c r="I93" t="n">
         <v>490</v>
       </c>
       <c r="J93" t="n">
-        <v>1.00166266086237</v>
+        <v>1.01738974017036</v>
       </c>
       <c r="K93" t="n">
         <v>5</v>
       </c>
       <c r="L93" t="n">
-        <v>261.64</v>
+        <v>265.77</v>
       </c>
       <c r="M93" t="n">
         <v>0</v>
@@ -5582,40 +5582,40 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="B94" t="n">
-        <v>40.36</v>
+        <v>40.9</v>
       </c>
       <c r="C94" t="n">
-        <v>4.395683506342038</v>
+        <v>4.396307673329835</v>
       </c>
       <c r="D94" t="n">
         <v>4.4</v>
       </c>
       <c r="E94" t="n">
-        <v>41.23088129456798</v>
+        <v>41.22948161394471</v>
       </c>
       <c r="F94" t="n">
         <v>41.16</v>
       </c>
       <c r="G94" t="n">
-        <v>1.902726350635192</v>
+        <v>1.92791930813931</v>
       </c>
       <c r="H94" t="n">
-        <v>102.3896763994013</v>
+        <v>103.7499967770645</v>
       </c>
       <c r="I94" t="n">
         <v>490</v>
       </c>
       <c r="J94" t="n">
-        <v>2.089585232640844</v>
+        <v>2.117346873001317</v>
       </c>
       <c r="K94" t="n">
         <v>10</v>
       </c>
       <c r="L94" t="n">
-        <v>832.96</v>
+        <v>844.09</v>
       </c>
       <c r="M94" t="n">
         <v>0</v>
@@ -5637,43 +5637,43 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>375</v>
+        <v>382</v>
       </c>
       <c r="B95" t="n">
-        <v>73.22</v>
+        <v>74.54000000000001</v>
       </c>
       <c r="C95" t="n">
-        <v>5.983312881343937</v>
+        <v>5.981246318930325</v>
       </c>
       <c r="D95" t="n">
         <v>5.98</v>
       </c>
       <c r="E95" t="n">
-        <v>56.70695301111948</v>
+        <v>56.70245897433547</v>
       </c>
       <c r="F95" t="n">
         <v>56.63</v>
       </c>
       <c r="G95" t="n">
-        <v>2.838281220822729</v>
+        <v>2.889816659999886</v>
       </c>
       <c r="H95" t="n">
-        <v>164.4457743604579</v>
+        <v>167.4225768107987</v>
       </c>
       <c r="I95" t="n">
         <v>490</v>
       </c>
       <c r="J95" t="n">
-        <v>3.356036211437917</v>
+        <v>3.416787281853034</v>
       </c>
       <c r="K95" t="n">
         <v>15</v>
       </c>
       <c r="L95" t="n">
-        <v>1970.85</v>
+        <v>2006.21</v>
       </c>
       <c r="M95" t="n">
-        <v>538.8528278177356</v>
+        <v>548.1132837142566</v>
       </c>
       <c r="N95" t="n">
         <v>0</v>
@@ -5692,43 +5692,43 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="B96" t="n">
-        <v>108.73</v>
+        <v>109.98</v>
       </c>
       <c r="C96" t="n">
-        <v>7.350326459006494</v>
+        <v>7.342575065397292</v>
       </c>
       <c r="D96" t="n">
-        <v>7.35</v>
+        <v>7.34</v>
       </c>
       <c r="E96" t="n">
-        <v>72.01020199152525</v>
+        <v>71.9981971927115</v>
       </c>
       <c r="F96" t="n">
-        <v>71.93000000000001</v>
+        <v>71.92</v>
       </c>
       <c r="G96" t="n">
-        <v>3.78028868700956</v>
+        <v>3.825345307872965</v>
       </c>
       <c r="H96" t="n">
-        <v>225.1378449675663</v>
+        <v>227.8023901135344</v>
       </c>
       <c r="I96" t="n">
         <v>490</v>
       </c>
       <c r="J96" t="n">
-        <v>4.594649897297272</v>
+        <v>4.649028369663968</v>
       </c>
       <c r="K96" t="n">
         <v>20</v>
       </c>
       <c r="L96" t="n">
-        <v>3654.29</v>
+        <v>3695.63</v>
       </c>
       <c r="M96" t="n">
-        <v>1447.305547619744</v>
+        <v>1461.758937244834</v>
       </c>
       <c r="N96" t="n">
         <v>0</v>
@@ -5747,43 +5747,43 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="B97" t="n">
-        <v>142.71</v>
+        <v>143.87</v>
       </c>
       <c r="C97" t="n">
-        <v>8.49005679132039</v>
+        <v>8.477949891969866</v>
       </c>
       <c r="D97" t="n">
-        <v>8.48</v>
+        <v>8.470000000000001</v>
       </c>
       <c r="E97" t="n">
-        <v>85.78852860995968</v>
+        <v>85.77007583314244</v>
       </c>
       <c r="F97" t="n">
-        <v>85.70999999999999</v>
+        <v>85.69</v>
       </c>
       <c r="G97" t="n">
-        <v>4.640609001254058</v>
+        <v>4.68114098369625</v>
       </c>
       <c r="H97" t="n">
-        <v>279.1310379578387</v>
+        <v>281.561241247916</v>
       </c>
       <c r="I97" t="n">
         <v>490</v>
       </c>
       <c r="J97" t="n">
-        <v>5.696551795057933</v>
+        <v>5.746147780569713</v>
       </c>
       <c r="K97" t="n">
         <v>25</v>
       </c>
       <c r="L97" t="n">
-        <v>5674.69</v>
+        <v>5719.92</v>
       </c>
       <c r="M97" t="n">
-        <v>2661.175400075311</v>
+        <v>2678.983440771491</v>
       </c>
       <c r="N97" t="n">
         <v>0</v>
@@ -5808,7 +5808,7 @@
         <v>0.86</v>
       </c>
       <c r="C98" t="n">
-        <v>0.512751603410538</v>
+        <v>0.5123846541644739</v>
       </c>
       <c r="D98" t="n">
         <v>0.5</v>
@@ -5820,10 +5820,10 @@
         <v>1</v>
       </c>
       <c r="G98" t="n">
-        <v>0.05489709234452009</v>
+        <v>0.05481854655995434</v>
       </c>
       <c r="H98" t="n">
-        <v>5.099786898551382</v>
+        <v>5.093930481428742</v>
       </c>
       <c r="I98" t="n">
         <v>490</v>
@@ -5857,40 +5857,40 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="B99" t="n">
-        <v>24.51</v>
+        <v>24.34</v>
       </c>
       <c r="C99" t="n">
-        <v>2.757614639974078</v>
+        <v>2.75743257969444</v>
       </c>
       <c r="D99" t="n">
         <v>2.76</v>
       </c>
       <c r="E99" t="n">
-        <v>25.72831825005554</v>
+        <v>25.72833333638504</v>
       </c>
       <c r="F99" t="n">
         <v>25.65</v>
       </c>
       <c r="G99" t="n">
-        <v>1.564006921761796</v>
+        <v>1.553216316641843</v>
       </c>
       <c r="H99" t="n">
-        <v>74.75562390549511</v>
+        <v>74.24179607218132</v>
       </c>
       <c r="I99" t="n">
         <v>490</v>
       </c>
       <c r="J99" t="n">
-        <v>1.525624977663166</v>
+        <v>1.515138695350639</v>
       </c>
       <c r="K99" t="n">
         <v>5</v>
       </c>
       <c r="L99" t="n">
-        <v>398.5</v>
+        <v>395.74</v>
       </c>
       <c r="M99" t="n">
         <v>0</v>
@@ -5912,40 +5912,40 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>577</v>
+        <v>570</v>
       </c>
       <c r="B100" t="n">
-        <v>60.35</v>
+        <v>59.63</v>
       </c>
       <c r="C100" t="n">
-        <v>4.379046650558884</v>
+        <v>4.379594091300439</v>
       </c>
       <c r="D100" t="n">
         <v>4.38</v>
       </c>
       <c r="E100" t="n">
-        <v>41.17824098880973</v>
+        <v>41.17924910603568</v>
       </c>
       <c r="F100" t="n">
         <v>41.11</v>
       </c>
       <c r="G100" t="n">
-        <v>2.852425535971331</v>
+        <v>2.818274952749984</v>
       </c>
       <c r="H100" t="n">
-        <v>153.3168987598058</v>
+        <v>151.487292236957</v>
       </c>
       <c r="I100" t="n">
         <v>490</v>
       </c>
       <c r="J100" t="n">
-        <v>3.128916301220526</v>
+        <v>3.091577392590959</v>
       </c>
       <c r="K100" t="n">
         <v>10</v>
       </c>
       <c r="L100" t="n">
-        <v>1244.84</v>
+        <v>1229.97</v>
       </c>
       <c r="M100" t="n">
         <v>0</v>
@@ -5967,43 +5967,43 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="B101" t="n">
-        <v>104.38</v>
+        <v>103.77</v>
       </c>
       <c r="C101" t="n">
-        <v>5.809781342498972</v>
+        <v>5.818297228837779</v>
       </c>
       <c r="D101" t="n">
-        <v>5.81</v>
+        <v>5.82</v>
       </c>
       <c r="E101" t="n">
-        <v>56.53940205014965</v>
+        <v>56.54453434977582</v>
       </c>
       <c r="F101" t="n">
         <v>56.47</v>
       </c>
       <c r="G101" t="n">
-        <v>4.115060504136547</v>
+        <v>4.087245818101216</v>
       </c>
       <c r="H101" t="n">
-        <v>237.1698712952391</v>
+        <v>235.6317130948852</v>
       </c>
       <c r="I101" t="n">
         <v>490</v>
       </c>
       <c r="J101" t="n">
-        <v>4.84020145500488</v>
+        <v>4.808810471324188</v>
       </c>
       <c r="K101" t="n">
         <v>15</v>
       </c>
       <c r="L101" t="n">
-        <v>2807.71</v>
+        <v>2790.97</v>
       </c>
       <c r="M101" t="n">
-        <v>716.2237250750859</v>
+        <v>714.5458131975437</v>
       </c>
       <c r="N101" t="n">
         <v>0</v>
@@ -6022,43 +6022,43 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>549</v>
+        <v>553</v>
       </c>
       <c r="B102" t="n">
-        <v>145.22</v>
+        <v>146.93</v>
       </c>
       <c r="C102" t="n">
-        <v>6.964164643484763</v>
+        <v>6.979685586509193</v>
       </c>
       <c r="D102" t="n">
-        <v>6.96</v>
+        <v>6.98</v>
       </c>
       <c r="E102" t="n">
-        <v>71.66441569875292</v>
+        <v>71.67309033102595</v>
       </c>
       <c r="F102" t="n">
-        <v>71.59</v>
+        <v>71.59999999999999</v>
       </c>
       <c r="G102" t="n">
-        <v>5.186246763912298</v>
+        <v>5.24135214425227</v>
       </c>
       <c r="H102" t="n">
-        <v>307.1688257703624</v>
+        <v>310.5143574181009</v>
       </c>
       <c r="I102" t="n">
         <v>490</v>
       </c>
       <c r="J102" t="n">
-        <v>6.268751546333926</v>
+        <v>6.337027702410223</v>
       </c>
       <c r="K102" t="n">
         <v>20</v>
       </c>
       <c r="L102" t="n">
-        <v>4868.19</v>
+        <v>4925.59</v>
       </c>
       <c r="M102" t="n">
-        <v>1790.329203175869</v>
+        <v>1817.413597020087</v>
       </c>
       <c r="N102" t="n">
         <v>0</v>
@@ -6077,43 +6077,43 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B103" t="n">
-        <v>184.15</v>
+        <v>184.12</v>
       </c>
       <c r="C103" t="n">
-        <v>7.892553201236377</v>
+        <v>7.899225670966185</v>
       </c>
       <c r="D103" t="n">
-        <v>7.88</v>
+        <v>7.89</v>
       </c>
       <c r="E103" t="n">
-        <v>85.37938499437101</v>
+        <v>85.38779288468548</v>
       </c>
       <c r="F103" t="n">
         <v>85.3</v>
       </c>
       <c r="G103" t="n">
-        <v>6.18711283748465</v>
+        <v>6.18357571000915</v>
       </c>
       <c r="H103" t="n">
-        <v>370.7092331009683</v>
+        <v>370.5274791083692</v>
       </c>
       <c r="I103" t="n">
         <v>490</v>
       </c>
       <c r="J103" t="n">
-        <v>7.565494553080985</v>
+        <v>7.561785287925902</v>
       </c>
       <c r="K103" t="n">
         <v>25</v>
       </c>
       <c r="L103" t="n">
-        <v>7301.49</v>
+        <v>7300.71</v>
       </c>
       <c r="M103" t="n">
-        <v>3179.363595665539</v>
+        <v>3182.215424446185</v>
       </c>
       <c r="N103" t="n">
         <v>0</v>
@@ -6135,10 +6135,10 @@
         <v>800</v>
       </c>
       <c r="B104" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="C104" t="n">
-        <v>0.5076605394880741</v>
+        <v>0.5079016365292793</v>
       </c>
       <c r="D104" t="n">
         <v>0.5</v>
@@ -6150,10 +6150,10 @@
         <v>1</v>
       </c>
       <c r="G104" t="n">
-        <v>0.07174982376991965</v>
+        <v>0.07181799049392321</v>
       </c>
       <c r="H104" t="n">
-        <v>6.691682166130509</v>
+        <v>6.696783587524019</v>
       </c>
       <c r="I104" t="n">
         <v>490</v>
@@ -6187,40 +6187,40 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>791</v>
+        <v>782</v>
       </c>
       <c r="B105" t="n">
-        <v>32.8</v>
+        <v>32.43</v>
       </c>
       <c r="C105" t="n">
-        <v>2.757163115471704</v>
+        <v>2.757329040020415</v>
       </c>
       <c r="D105" t="n">
         <v>2.76</v>
       </c>
       <c r="E105" t="n">
-        <v>25.7250813372051</v>
+        <v>25.72506824438712</v>
       </c>
       <c r="F105" t="n">
         <v>25.65</v>
       </c>
       <c r="G105" t="n">
-        <v>2.092596243125465</v>
+        <v>2.069035682144603</v>
       </c>
       <c r="H105" t="n">
-        <v>100.027342742494</v>
+        <v>98.89878307187891</v>
       </c>
       <c r="I105" t="n">
         <v>490</v>
       </c>
       <c r="J105" t="n">
-        <v>2.041374341683552</v>
+        <v>2.018342511670998</v>
       </c>
       <c r="K105" t="n">
         <v>5</v>
       </c>
       <c r="L105" t="n">
-        <v>533.16</v>
+        <v>527.16</v>
       </c>
       <c r="M105" t="n">
         <v>0</v>
@@ -6242,40 +6242,40 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>776</v>
+        <v>772</v>
       </c>
       <c r="B106" t="n">
-        <v>79.04000000000001</v>
+        <v>78.72</v>
       </c>
       <c r="C106" t="n">
-        <v>4.321525664155636</v>
+        <v>4.323849379334436</v>
       </c>
       <c r="D106" t="n">
         <v>4.32</v>
       </c>
       <c r="E106" t="n">
-        <v>41.12659080552604</v>
+        <v>41.12875036894425</v>
       </c>
       <c r="F106" t="n">
         <v>41.06</v>
       </c>
       <c r="G106" t="n">
-        <v>3.771132066536496</v>
+        <v>3.754300367626449</v>
       </c>
       <c r="H106" t="n">
-        <v>201.8641796118612</v>
+        <v>200.9969856022909</v>
       </c>
       <c r="I106" t="n">
         <v>490</v>
       </c>
       <c r="J106" t="n">
-        <v>4.119677134935943</v>
+        <v>4.101979298005936</v>
       </c>
       <c r="K106" t="n">
         <v>10</v>
       </c>
       <c r="L106" t="n">
-        <v>1632.33</v>
+        <v>1625.65</v>
       </c>
       <c r="M106" t="n">
         <v>0</v>
@@ -6297,43 +6297,43 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>762</v>
+        <v>750</v>
       </c>
       <c r="B107" t="n">
-        <v>131.33</v>
+        <v>129.38</v>
       </c>
       <c r="C107" t="n">
-        <v>5.621309347488187</v>
+        <v>5.623890343842799</v>
       </c>
       <c r="D107" t="n">
         <v>5.62</v>
       </c>
       <c r="E107" t="n">
-        <v>56.38009927397732</v>
+        <v>56.38412303965085</v>
       </c>
       <c r="F107" t="n">
         <v>56.31</v>
       </c>
       <c r="G107" t="n">
-        <v>5.278396265058213</v>
+        <v>5.198658495274866</v>
       </c>
       <c r="H107" t="n">
-        <v>302.3041686035619</v>
+        <v>297.7627715455757</v>
       </c>
       <c r="I107" t="n">
         <v>490</v>
       </c>
       <c r="J107" t="n">
-        <v>6.169472828644121</v>
+        <v>6.076791256032157</v>
       </c>
       <c r="K107" t="n">
         <v>15</v>
       </c>
       <c r="L107" t="n">
-        <v>3531.94</v>
+        <v>3479.7</v>
       </c>
       <c r="M107" t="n">
-        <v>826.7215567980899</v>
+        <v>815.4948255375007</v>
       </c>
       <c r="N107" t="n">
         <v>0</v>
@@ -6352,43 +6352,43 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>745</v>
+        <v>741</v>
       </c>
       <c r="B108" t="n">
-        <v>178.12</v>
+        <v>177.73</v>
       </c>
       <c r="C108" t="n">
-        <v>6.620876059958416</v>
+        <v>6.631391250128899</v>
       </c>
       <c r="D108" t="n">
-        <v>6.62</v>
+        <v>6.63</v>
       </c>
       <c r="E108" t="n">
-        <v>71.41300936558153</v>
+        <v>71.41745621248796</v>
       </c>
       <c r="F108" t="n">
         <v>71.34</v>
       </c>
       <c r="G108" t="n">
-        <v>6.52940331227656</v>
+        <v>6.50964901211681</v>
       </c>
       <c r="H108" t="n">
-        <v>384.3488474386525</v>
+        <v>383.2601579995216</v>
       </c>
       <c r="I108" t="n">
         <v>490</v>
       </c>
       <c r="J108" t="n">
-        <v>7.843854029360254</v>
+        <v>7.821635877541258</v>
       </c>
       <c r="K108" t="n">
         <v>20</v>
       </c>
       <c r="L108" t="n">
-        <v>5963.77</v>
+        <v>5950.62</v>
       </c>
       <c r="M108" t="n">
-        <v>2027.849946733753</v>
+        <v>2028.538170479959</v>
       </c>
       <c r="N108" t="n">
         <v>0</v>
@@ -6407,43 +6407,43 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>732</v>
+        <v>727</v>
       </c>
       <c r="B109" t="n">
-        <v>218.52</v>
+        <v>217.34</v>
       </c>
       <c r="C109" t="n">
-        <v>7.398253910992836</v>
+        <v>7.403498835779518</v>
       </c>
       <c r="D109" t="n">
         <v>7.39</v>
       </c>
       <c r="E109" t="n">
-        <v>85.12147700553302</v>
+        <v>85.12601947469415</v>
       </c>
       <c r="F109" t="n">
         <v>85.04000000000001</v>
       </c>
       <c r="G109" t="n">
-        <v>7.569798166858435</v>
+        <v>7.526371593722517</v>
       </c>
       <c r="H109" t="n">
-        <v>451.2980937014686</v>
+        <v>448.7255678334397</v>
       </c>
       <c r="I109" t="n">
         <v>490</v>
       </c>
       <c r="J109" t="n">
-        <v>9.210165177580992</v>
+        <v>9.157664649662035</v>
       </c>
       <c r="K109" t="n">
         <v>25</v>
       </c>
       <c r="L109" t="n">
-        <v>8655.280000000001</v>
+        <v>8608.59</v>
       </c>
       <c r="M109" t="n">
-        <v>3495.049517155625</v>
+        <v>3478.963205691998</v>
       </c>
       <c r="N109" t="n">
         <v>0</v>
